--- a/Historicos/ta_jalisco_div_gpo_actividad.xlsx
+++ b/Historicos/ta_jalisco_div_gpo_actividad.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677AEC2F-B569-47FF-8777-4BD0053CEC48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08EAE29-0052-4AF9-A8D4-A049511036CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta_jalisco_div_gpo_frac" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="345">
   <si>
     <t>grupo</t>
   </si>
@@ -1051,13 +1051,16 @@
     <t>Por división grupo y fracción económica</t>
   </si>
   <si>
-    <t>diciembre 2023 - mayo 2024</t>
+    <t>imss_2024_6</t>
+  </si>
+  <si>
+    <t>diciembre 2023 - junio 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1555,11 +1558,11 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1915,63 +1918,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I278"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1999,8 +2005,11 @@
       <c r="I7">
         <v>91801</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>89306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2028,8 +2037,11 @@
       <c r="I8">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2057,8 +2069,11 @@
       <c r="I9">
         <v>24185</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>24194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2086,8 +2101,11 @@
       <c r="I10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2115,8 +2133,11 @@
       <c r="I11">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2144,8 +2165,11 @@
       <c r="I12">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2173,8 +2197,11 @@
       <c r="I13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2202,8 +2229,11 @@
       <c r="I14">
         <v>517</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2231,8 +2261,11 @@
       <c r="I15">
         <v>57488</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>57733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2260,8 +2293,11 @@
       <c r="I16">
         <v>19337</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>19594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2289,8 +2325,11 @@
       <c r="I17">
         <v>503</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2318,8 +2357,11 @@
       <c r="I18">
         <v>10854</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>10544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2347,8 +2389,11 @@
       <c r="I19">
         <v>8277</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2376,8 +2421,11 @@
       <c r="I20">
         <v>3040</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2405,8 +2453,11 @@
       <c r="I21">
         <v>4780</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2434,8 +2485,11 @@
       <c r="I22">
         <v>1880</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2463,8 +2517,11 @@
       <c r="I23">
         <v>1292</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2492,8 +2549,11 @@
       <c r="I24">
         <v>942</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2521,8 +2581,11 @@
       <c r="I25">
         <v>32432</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>32636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2550,8 +2613,11 @@
       <c r="I26">
         <v>5010</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2579,8 +2645,11 @@
       <c r="I27">
         <v>1811</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2608,8 +2677,11 @@
       <c r="I28">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2637,8 +2709,11 @@
       <c r="I29">
         <v>360</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2666,8 +2741,11 @@
       <c r="I30">
         <v>7188</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>7237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2695,8 +2773,11 @@
       <c r="I31">
         <v>15835</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>15873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2724,8 +2805,11 @@
       <c r="I32">
         <v>8579</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>6941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2753,8 +2837,11 @@
       <c r="I33">
         <v>6615</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2782,8 +2869,11 @@
       <c r="I34">
         <v>1278</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2811,8 +2901,11 @@
       <c r="I35">
         <v>438</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2840,8 +2933,11 @@
       <c r="I36">
         <v>4195</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2869,8 +2965,11 @@
       <c r="I37">
         <v>1364</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2898,8 +2997,11 @@
       <c r="I38">
         <v>22600</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>22585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2927,8 +3029,11 @@
       <c r="I39">
         <v>2684</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2956,8 +3061,11 @@
       <c r="I40">
         <v>1106</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2985,8 +3093,11 @@
       <c r="I41">
         <v>5337</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3014,8 +3125,11 @@
       <c r="I42">
         <v>10587</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>10925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3043,8 +3157,11 @@
       <c r="I43">
         <v>2566</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3072,8 +3189,11 @@
       <c r="I44">
         <v>855</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3101,8 +3221,11 @@
       <c r="I45">
         <v>253</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3130,8 +3253,11 @@
       <c r="I46">
         <v>528</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3159,8 +3285,11 @@
       <c r="I47">
         <v>8831</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3188,8 +3317,11 @@
       <c r="I48">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3217,8 +3349,11 @@
       <c r="I49">
         <v>5882</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3246,8 +3381,11 @@
       <c r="I50">
         <v>1104</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3275,8 +3413,11 @@
       <c r="I51">
         <v>6536</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3304,8 +3445,11 @@
       <c r="I52">
         <v>2912</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3333,8 +3477,11 @@
       <c r="I53">
         <v>25496</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>25396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3362,8 +3509,11 @@
       <c r="I54">
         <v>3630</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3391,8 +3541,11 @@
       <c r="I55">
         <v>3467</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3420,8 +3573,11 @@
       <c r="I56">
         <v>1252</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3449,8 +3605,11 @@
       <c r="I57">
         <v>1129</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3478,8 +3637,11 @@
       <c r="I58">
         <v>440</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3507,8 +3669,11 @@
       <c r="I59">
         <v>292</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3536,8 +3701,11 @@
       <c r="I60">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3565,8 +3733,11 @@
       <c r="I61">
         <v>2091</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -3594,8 +3765,11 @@
       <c r="I62">
         <v>359</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -3623,8 +3797,11 @@
       <c r="I63">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -3652,8 +3829,11 @@
       <c r="I64">
         <v>2104</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -3681,8 +3861,11 @@
       <c r="I65">
         <v>6368</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -3710,8 +3893,11 @@
       <c r="I66">
         <v>24339</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>24336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -3739,8 +3925,11 @@
       <c r="I67">
         <v>5555</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3768,8 +3957,11 @@
       <c r="I68">
         <v>3373</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -3797,8 +3989,11 @@
       <c r="I69">
         <v>915</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -3826,8 +4021,11 @@
       <c r="I70">
         <v>6130</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -3855,8 +4053,11 @@
       <c r="I71">
         <v>13126</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>13046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -3884,8 +4085,11 @@
       <c r="I72">
         <v>2975</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -3913,8 +4117,11 @@
       <c r="I73">
         <v>1944</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -3942,8 +4149,11 @@
       <c r="I74">
         <v>651</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -3971,8 +4181,11 @@
       <c r="I75">
         <v>4630</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4000,8 +4213,11 @@
       <c r="I76">
         <v>50367</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>50986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4029,8 +4245,11 @@
       <c r="I77">
         <v>44551</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>46141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4058,8 +4277,11 @@
       <c r="I78">
         <v>67886</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>67988</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4087,8 +4309,11 @@
       <c r="I79">
         <v>4493</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4116,8 +4341,11 @@
       <c r="I80">
         <v>1256</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4145,8 +4373,11 @@
       <c r="I81">
         <v>21070</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>20931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4174,8 +4405,11 @@
       <c r="I82">
         <v>11968</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>12299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -4203,8 +4437,11 @@
       <c r="I83">
         <v>4697</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="I84">
         <v>5697</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -4261,8 +4501,11 @@
       <c r="I85">
         <v>760</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -4290,8 +4533,11 @@
       <c r="I86">
         <v>6787</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -4319,8 +4565,11 @@
       <c r="I87">
         <v>609</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -4348,8 +4597,11 @@
       <c r="I88">
         <v>2811</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -4377,8 +4629,11 @@
       <c r="I89">
         <v>4108</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -4406,8 +4661,11 @@
       <c r="I90">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4435,8 +4693,11 @@
       <c r="I91">
         <v>2381</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4464,8 +4725,11 @@
       <c r="I92">
         <v>287</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -4493,8 +4757,11 @@
       <c r="I93">
         <v>1187</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -4522,8 +4789,11 @@
       <c r="I94">
         <v>839</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -4551,8 +4821,11 @@
       <c r="I95">
         <v>13539</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>13896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -4580,8 +4853,11 @@
       <c r="I96">
         <v>6992</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -4609,8 +4885,11 @@
       <c r="I97">
         <v>446</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4638,8 +4917,11 @@
       <c r="I98">
         <v>1162</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -4667,8 +4949,11 @@
       <c r="I99">
         <v>16627</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>16660</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -4696,8 +4981,11 @@
       <c r="I100">
         <v>9428</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -4725,8 +5013,11 @@
       <c r="I101">
         <v>438</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -4754,8 +5045,11 @@
       <c r="I102">
         <v>62</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -4783,8 +5077,11 @@
       <c r="I103">
         <v>1094</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -4812,8 +5109,11 @@
       <c r="I104">
         <v>6493</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4841,8 +5141,11 @@
       <c r="I105">
         <v>285</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4870,8 +5173,11 @@
       <c r="I106">
         <v>57</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -4899,8 +5205,11 @@
       <c r="I107">
         <v>3233</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -4928,8 +5237,11 @@
       <c r="I108">
         <v>15176</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>15178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -4957,8 +5269,11 @@
       <c r="I109">
         <v>14125</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>13996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -4986,8 +5301,11 @@
       <c r="I110">
         <v>18484</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>18452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -5015,8 +5333,11 @@
       <c r="I111">
         <v>4114</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -5044,8 +5365,11 @@
       <c r="I112">
         <v>10446</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <v>10507</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -5073,8 +5397,11 @@
       <c r="I113">
         <v>327</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -5102,8 +5429,11 @@
       <c r="I114">
         <v>11143</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <v>11315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -5131,8 +5461,11 @@
       <c r="I115">
         <v>8283</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>104</v>
       </c>
@@ -5160,8 +5493,11 @@
       <c r="I116">
         <v>2013</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -5189,8 +5525,11 @@
       <c r="I117">
         <v>4845</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -5218,8 +5557,11 @@
       <c r="I118">
         <v>1080</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -5247,8 +5589,11 @@
       <c r="I119">
         <v>3883</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -5276,8 +5621,11 @@
       <c r="I120">
         <v>3172</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -5305,8 +5653,11 @@
       <c r="I121">
         <v>6172</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -5334,8 +5685,11 @@
       <c r="I122">
         <v>3400</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -5363,8 +5717,11 @@
       <c r="I123">
         <v>6103</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -5392,8 +5749,11 @@
       <c r="I124">
         <v>1680</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -5421,8 +5781,11 @@
       <c r="I125">
         <v>38029</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125">
+        <v>38053</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>104</v>
       </c>
@@ -5450,8 +5813,11 @@
       <c r="I126">
         <v>27</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>104</v>
       </c>
@@ -5479,8 +5845,11 @@
       <c r="I127">
         <v>519</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -5508,8 +5877,11 @@
       <c r="I128">
         <v>1432</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -5537,8 +5909,11 @@
       <c r="I129">
         <v>1250</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>104</v>
       </c>
@@ -5566,8 +5941,11 @@
       <c r="I130">
         <v>1066</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>104</v>
       </c>
@@ -5595,8 +5973,11 @@
       <c r="I131">
         <v>288</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -5624,8 +6005,11 @@
       <c r="I132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>104</v>
       </c>
@@ -5653,8 +6037,11 @@
       <c r="I133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -5682,8 +6069,11 @@
       <c r="I134">
         <v>603</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>104</v>
       </c>
@@ -5711,8 +6101,11 @@
       <c r="I135">
         <v>69</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>104</v>
       </c>
@@ -5740,8 +6133,11 @@
       <c r="I136">
         <v>815</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -5769,8 +6165,11 @@
       <c r="I137">
         <v>1621</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>104</v>
       </c>
@@ -5798,8 +6197,11 @@
       <c r="I138">
         <v>1467</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>104</v>
       </c>
@@ -5827,8 +6229,11 @@
       <c r="I139">
         <v>1637</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>104</v>
       </c>
@@ -5856,8 +6261,11 @@
       <c r="I140">
         <v>282</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>104</v>
       </c>
@@ -5885,8 +6293,11 @@
       <c r="I141">
         <v>1201</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -5914,8 +6325,11 @@
       <c r="I142">
         <v>362</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>104</v>
       </c>
@@ -5943,8 +6357,11 @@
       <c r="I143">
         <v>2694</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>104</v>
       </c>
@@ -5972,8 +6389,11 @@
       <c r="I144">
         <v>23520</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>23778</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -6001,8 +6421,11 @@
       <c r="I145">
         <v>4108</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -6030,8 +6453,11 @@
       <c r="I146">
         <v>13407</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>13418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>104</v>
       </c>
@@ -6059,8 +6485,11 @@
       <c r="I147">
         <v>1416</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>104</v>
       </c>
@@ -6088,8 +6517,11 @@
       <c r="I148">
         <v>5047</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -6117,8 +6549,11 @@
       <c r="I149">
         <v>1688</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>104</v>
       </c>
@@ -6146,8 +6581,11 @@
       <c r="I150">
         <v>273</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>104</v>
       </c>
@@ -6175,8 +6613,11 @@
       <c r="I151">
         <v>1141</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>104</v>
       </c>
@@ -6204,8 +6645,11 @@
       <c r="I152">
         <v>1908</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>104</v>
       </c>
@@ -6233,8 +6677,11 @@
       <c r="I153">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>104</v>
       </c>
@@ -6262,8 +6709,11 @@
       <c r="I154">
         <v>3547</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>104</v>
       </c>
@@ -6291,8 +6741,11 @@
       <c r="I155">
         <v>25496</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155">
+        <v>25859</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>104</v>
       </c>
@@ -6320,8 +6773,11 @@
       <c r="I156">
         <v>18356</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156">
+        <v>18559</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -6349,8 +6805,11 @@
       <c r="I157">
         <v>3204</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -6378,8 +6837,11 @@
       <c r="I158">
         <v>1920</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -6407,8 +6869,11 @@
       <c r="I159">
         <v>11571</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159">
+        <v>11670</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>104</v>
       </c>
@@ -6436,8 +6901,11 @@
       <c r="I160">
         <v>137</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>104</v>
       </c>
@@ -6465,8 +6933,11 @@
       <c r="I161">
         <v>858</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>104</v>
       </c>
@@ -6494,8 +6965,11 @@
       <c r="I162">
         <v>158</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>104</v>
       </c>
@@ -6523,8 +6997,11 @@
       <c r="I163">
         <v>21118</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163">
+        <v>20924</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>104</v>
       </c>
@@ -6552,8 +7029,11 @@
       <c r="I164">
         <v>811</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>104</v>
       </c>
@@ -6581,8 +7061,11 @@
       <c r="I165">
         <v>6132</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>104</v>
       </c>
@@ -6610,8 +7093,11 @@
       <c r="I166">
         <v>711</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>104</v>
       </c>
@@ -6639,8 +7125,11 @@
       <c r="I167">
         <v>1265</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>104</v>
       </c>
@@ -6668,8 +7157,11 @@
       <c r="I168">
         <v>14904</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168">
+        <v>14860</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>104</v>
       </c>
@@ -6697,8 +7189,11 @@
       <c r="I169">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>104</v>
       </c>
@@ -6726,8 +7221,11 @@
       <c r="I170">
         <v>2790</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>104</v>
       </c>
@@ -6755,8 +7253,11 @@
       <c r="I171">
         <v>9731</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>104</v>
       </c>
@@ -6784,8 +7285,11 @@
       <c r="I172">
         <v>3238</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>104</v>
       </c>
@@ -6813,8 +7317,11 @@
       <c r="I173">
         <v>1418</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>104</v>
       </c>
@@ -6842,8 +7349,11 @@
       <c r="I174">
         <v>353</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>104</v>
       </c>
@@ -6871,8 +7381,11 @@
       <c r="I175">
         <v>28</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>104</v>
       </c>
@@ -6900,8 +7413,11 @@
       <c r="I176">
         <v>218</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>104</v>
       </c>
@@ -6929,8 +7445,11 @@
       <c r="I177">
         <v>1227</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>104</v>
       </c>
@@ -6958,8 +7477,11 @@
       <c r="I178">
         <v>2759</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>104</v>
       </c>
@@ -6987,8 +7509,11 @@
       <c r="I179">
         <v>3459</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>104</v>
       </c>
@@ -7016,8 +7541,11 @@
       <c r="I180">
         <v>1181</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>104</v>
       </c>
@@ -7045,8 +7573,11 @@
       <c r="I181">
         <v>1674</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -7074,8 +7605,11 @@
       <c r="I182">
         <v>625</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -7103,8 +7637,11 @@
       <c r="I183">
         <v>2652</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>104</v>
       </c>
@@ -7132,8 +7669,11 @@
       <c r="I184">
         <v>30183</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184">
+        <v>30408</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>104</v>
       </c>
@@ -7161,8 +7701,11 @@
       <c r="I185">
         <v>2170</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>104</v>
       </c>
@@ -7190,8 +7733,11 @@
       <c r="I186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>104</v>
       </c>
@@ -7219,8 +7765,11 @@
       <c r="I187">
         <v>1952</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>104</v>
       </c>
@@ -7248,8 +7797,11 @@
       <c r="I188">
         <v>2072</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -7277,8 +7829,11 @@
       <c r="I189">
         <v>122</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>104</v>
       </c>
@@ -7306,8 +7861,11 @@
       <c r="I190">
         <v>468</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>104</v>
       </c>
@@ -7335,8 +7893,11 @@
       <c r="I191">
         <v>111</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -7364,8 +7925,11 @@
       <c r="I192">
         <v>239</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>104</v>
       </c>
@@ -7393,8 +7957,11 @@
       <c r="I193">
         <v>3709</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>104</v>
       </c>
@@ -7422,8 +7989,11 @@
       <c r="I194">
         <v>1447</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>104</v>
       </c>
@@ -7451,8 +8021,11 @@
       <c r="I195">
         <v>48</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>104</v>
       </c>
@@ -7480,8 +8053,11 @@
       <c r="I196">
         <v>10820</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196">
+        <v>10824</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -7509,8 +8085,11 @@
       <c r="I197">
         <v>5302</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -7538,8 +8117,11 @@
       <c r="I198">
         <v>2030</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>104</v>
       </c>
@@ -7567,8 +8149,11 @@
       <c r="I199">
         <v>102</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>104</v>
       </c>
@@ -7596,8 +8181,11 @@
       <c r="I200">
         <v>211</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>104</v>
       </c>
@@ -7625,8 +8213,11 @@
       <c r="I201">
         <v>151</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>104</v>
       </c>
@@ -7654,8 +8245,11 @@
       <c r="I202">
         <v>994</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>104</v>
       </c>
@@ -7683,8 +8277,11 @@
       <c r="I203">
         <v>1870</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>104</v>
       </c>
@@ -7712,8 +8309,11 @@
       <c r="I204">
         <v>5449</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>104</v>
       </c>
@@ -7741,8 +8341,11 @@
       <c r="I205">
         <v>1066</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>104</v>
       </c>
@@ -7770,8 +8373,11 @@
       <c r="I206">
         <v>4464</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -7799,8 +8405,11 @@
       <c r="I207">
         <v>262</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>104</v>
       </c>
@@ -7828,8 +8437,11 @@
       <c r="I208">
         <v>1343</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>104</v>
       </c>
@@ -7857,8 +8469,11 @@
       <c r="I209">
         <v>211</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>104</v>
       </c>
@@ -7886,8 +8501,11 @@
       <c r="I210">
         <v>52</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>251</v>
       </c>
@@ -7915,8 +8533,11 @@
       <c r="I211">
         <v>34</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>251</v>
       </c>
@@ -7944,8 +8565,11 @@
       <c r="I212">
         <v>214</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>251</v>
       </c>
@@ -7973,8 +8597,11 @@
       <c r="I213">
         <v>829</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -8002,8 +8629,11 @@
       <c r="I214">
         <v>171</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>251</v>
       </c>
@@ -8031,8 +8661,11 @@
       <c r="I215">
         <v>575</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>251</v>
       </c>
@@ -8060,8 +8693,11 @@
       <c r="I216">
         <v>101</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>251</v>
       </c>
@@ -8089,8 +8725,11 @@
       <c r="I217">
         <v>92</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>251</v>
       </c>
@@ -8118,8 +8757,11 @@
       <c r="I218">
         <v>755</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -8147,8 +8789,11 @@
       <c r="I219">
         <v>3293</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>264</v>
       </c>
@@ -8176,8 +8821,11 @@
       <c r="I220">
         <v>2554</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -8205,8 +8853,11 @@
       <c r="I221">
         <v>57158</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>57679</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>264</v>
       </c>
@@ -8234,8 +8885,11 @@
       <c r="I222">
         <v>3857</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>264</v>
       </c>
@@ -8263,8 +8917,11 @@
       <c r="I223">
         <v>6455</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>264</v>
       </c>
@@ -8292,8 +8949,11 @@
       <c r="I224">
         <v>322</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>264</v>
       </c>
@@ -8321,8 +8981,11 @@
       <c r="I225">
         <v>37996</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225">
+        <v>38275</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>264</v>
       </c>
@@ -8350,8 +9013,11 @@
       <c r="I226">
         <v>158540</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226">
+        <v>158851</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>264</v>
       </c>
@@ -8379,8 +9045,11 @@
       <c r="I227">
         <v>37981</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227">
+        <v>37970</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>264</v>
       </c>
@@ -8408,8 +9077,11 @@
       <c r="I228">
         <v>954</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>264</v>
       </c>
@@ -8437,8 +9109,11 @@
       <c r="I229">
         <v>121</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>264</v>
       </c>
@@ -8466,8 +9141,11 @@
       <c r="I230">
         <v>2082</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>264</v>
       </c>
@@ -8495,8 +9173,11 @@
       <c r="I231">
         <v>689</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>264</v>
       </c>
@@ -8524,8 +9205,11 @@
       <c r="I232">
         <v>2987</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -8553,8 +9237,11 @@
       <c r="I233">
         <v>1604</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>264</v>
       </c>
@@ -8582,8 +9269,11 @@
       <c r="I234">
         <v>50554</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234">
+        <v>49853</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -8611,8 +9301,11 @@
       <c r="I235">
         <v>150</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>264</v>
       </c>
@@ -8640,8 +9333,11 @@
       <c r="I236">
         <v>21480</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236">
+        <v>21410</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -8669,8 +9365,11 @@
       <c r="I237">
         <v>3076</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>264</v>
       </c>
@@ -8698,8 +9397,11 @@
       <c r="I238">
         <v>8087</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238">
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>264</v>
       </c>
@@ -8727,8 +9429,11 @@
       <c r="I239">
         <v>24959</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239">
+        <v>25057</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -8756,8 +9461,11 @@
       <c r="I240">
         <v>1472</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -8785,8 +9493,11 @@
       <c r="I241">
         <v>28</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>264</v>
       </c>
@@ -8814,8 +9525,11 @@
       <c r="I242">
         <v>2935</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -8843,8 +9557,11 @@
       <c r="I243">
         <v>16048</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243">
+        <v>15979</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>264</v>
       </c>
@@ -8872,8 +9589,11 @@
       <c r="I244">
         <v>6184</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>264</v>
       </c>
@@ -8901,8 +9621,11 @@
       <c r="I245">
         <v>1474</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -8930,8 +9653,11 @@
       <c r="I246">
         <v>1321</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>264</v>
       </c>
@@ -8959,8 +9685,11 @@
       <c r="I247">
         <v>2621</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -8988,8 +9717,11 @@
       <c r="I248">
         <v>2585</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -9017,8 +9749,11 @@
       <c r="I249">
         <v>692</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -9046,8 +9781,11 @@
       <c r="I250">
         <v>653</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>264</v>
       </c>
@@ -9075,8 +9813,11 @@
       <c r="I251">
         <v>11721</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251">
+        <v>11680</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -9104,8 +9845,11 @@
       <c r="I252">
         <v>87</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -9133,8 +9877,11 @@
       <c r="I253">
         <v>4468</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>264</v>
       </c>
@@ -9162,8 +9909,11 @@
       <c r="I254">
         <v>1310</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -9191,8 +9941,11 @@
       <c r="I255">
         <v>3506</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -9220,8 +9973,11 @@
       <c r="I256">
         <v>3003</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J256">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -9249,8 +10005,11 @@
       <c r="I257">
         <v>34861</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257">
+        <v>35252</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9278,8 +10037,11 @@
       <c r="I258">
         <v>131585</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258">
+        <v>130614</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -9307,8 +10069,11 @@
       <c r="I259">
         <v>641</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>264</v>
       </c>
@@ -9336,8 +10101,11 @@
       <c r="I260">
         <v>25</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -9365,8 +10133,11 @@
       <c r="I261">
         <v>40</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J261">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -9394,8 +10165,11 @@
       <c r="I262">
         <v>3786</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J262">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -9423,8 +10197,11 @@
       <c r="I263">
         <v>6841</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J263">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -9452,8 +10229,11 @@
       <c r="I264">
         <v>10154</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J264">
+        <v>10274</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -9481,8 +10261,11 @@
       <c r="I265">
         <v>7796</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J265">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -9510,8 +10293,11 @@
       <c r="I266">
         <v>11057</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J266">
+        <v>10834</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>321</v>
       </c>
@@ -9539,8 +10325,11 @@
       <c r="I267">
         <v>963</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J267">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>321</v>
       </c>
@@ -9568,8 +10357,11 @@
       <c r="I268">
         <v>17417</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J268">
+        <v>17338</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>321</v>
       </c>
@@ -9597,8 +10389,11 @@
       <c r="I269">
         <v>17909</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J269">
+        <v>17753</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>321</v>
       </c>
@@ -9626,8 +10421,11 @@
       <c r="I270">
         <v>22</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J270">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>321</v>
       </c>
@@ -9655,8 +10453,11 @@
       <c r="I271">
         <v>1050</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J271">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>321</v>
       </c>
@@ -9684,8 +10485,11 @@
       <c r="I272">
         <v>4846</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J272">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>321</v>
       </c>
@@ -9713,8 +10517,11 @@
       <c r="I273">
         <v>5118</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J273">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>321</v>
       </c>
@@ -9742,8 +10549,11 @@
       <c r="I274">
         <v>95</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J274">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>321</v>
       </c>
@@ -9771,8 +10581,11 @@
       <c r="I275">
         <v>664</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J275">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>321</v>
       </c>
@@ -9800,8 +10613,11 @@
       <c r="I276">
         <v>39394</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>321</v>
       </c>
@@ -9829,8 +10645,11 @@
       <c r="I277">
         <v>16764</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277">
+        <v>16693</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>321</v>
       </c>
@@ -9857,6 +10676,9 @@
       </c>
       <c r="I278">
         <v>1643</v>
+      </c>
+      <c r="J278">
+        <v>1615</v>
       </c>
     </row>
   </sheetData>

--- a/Historicos/ta_jalisco_div_gpo_actividad.xlsx
+++ b/Historicos/ta_jalisco_div_gpo_actividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08EAE29-0052-4AF9-A8D4-A049511036CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C2A5CE-CCD0-470C-BC88-DF21F4B4D379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="346">
   <si>
     <t>grupo</t>
   </si>
@@ -1039,12 +1039,6 @@
     <t>Transporte ferroviario y eléctrico</t>
   </si>
   <si>
-    <t>división</t>
-  </si>
-  <si>
-    <t>fracción</t>
-  </si>
-  <si>
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
@@ -1054,7 +1048,16 @@
     <t>imss_2024_6</t>
   </si>
   <si>
-    <t>diciembre 2023 - junio 2024</t>
+    <t>diciembre 2023 - julio 2024</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>fraccion</t>
+  </si>
+  <si>
+    <t>imss_2024_7</t>
   </si>
 </sst>
 </file>
@@ -1919,41 +1922,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:K278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -1974,10 +1977,13 @@
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2008,8 +2014,11 @@
       <c r="J7">
         <v>89306</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>83894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2040,8 +2049,11 @@
       <c r="J8">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2072,8 +2084,11 @@
       <c r="J9">
         <v>24194</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2104,8 +2119,11 @@
       <c r="J10">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2136,8 +2154,11 @@
       <c r="J11">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2168,8 +2189,11 @@
       <c r="J12">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2200,8 +2224,11 @@
       <c r="J13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2232,8 +2259,11 @@
       <c r="J14">
         <v>492</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2264,8 +2294,11 @@
       <c r="J15">
         <v>57733</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>57805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2296,8 +2329,11 @@
       <c r="J16">
         <v>19594</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>19990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2328,8 +2364,11 @@
       <c r="J17">
         <v>492</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2360,8 +2399,11 @@
       <c r="J18">
         <v>10544</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>10851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2392,8 +2434,11 @@
       <c r="J19">
         <v>8242</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2424,8 +2469,11 @@
       <c r="J20">
         <v>3030</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2456,8 +2504,11 @@
       <c r="J21">
         <v>4718</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2488,8 +2539,11 @@
       <c r="J22">
         <v>1891</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2520,8 +2574,11 @@
       <c r="J23">
         <v>1366</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2552,8 +2609,11 @@
       <c r="J24">
         <v>956</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2584,8 +2644,11 @@
       <c r="J25">
         <v>32636</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>32889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2616,8 +2679,11 @@
       <c r="J26">
         <v>5016</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2648,8 +2714,11 @@
       <c r="J27">
         <v>1736</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2680,8 +2749,11 @@
       <c r="J28">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2712,8 +2784,11 @@
       <c r="J29">
         <v>353</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2744,8 +2819,11 @@
       <c r="J30">
         <v>7237</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2776,8 +2854,11 @@
       <c r="J31">
         <v>15873</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>15916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2808,8 +2889,11 @@
       <c r="J32">
         <v>6941</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2840,8 +2924,11 @@
       <c r="J33">
         <v>6556</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2872,8 +2959,11 @@
       <c r="J34">
         <v>1257</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2904,8 +2994,11 @@
       <c r="J35">
         <v>431</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2936,8 +3029,11 @@
       <c r="J36">
         <v>4202</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3064,11 @@
       <c r="J37">
         <v>1324</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3000,8 +3099,11 @@
       <c r="J38">
         <v>22585</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>22538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3032,8 +3134,11 @@
       <c r="J39">
         <v>2626</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -3064,8 +3169,11 @@
       <c r="J40">
         <v>1142</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3096,8 +3204,11 @@
       <c r="J41">
         <v>5235</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3128,8 +3239,11 @@
       <c r="J42">
         <v>10925</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>10942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3160,8 +3274,11 @@
       <c r="J43">
         <v>2123</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3192,8 +3309,11 @@
       <c r="J44">
         <v>875</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3224,8 +3344,11 @@
       <c r="J45">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3256,8 +3379,11 @@
       <c r="J46">
         <v>525</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3288,8 +3414,11 @@
       <c r="J47">
         <v>8763</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3320,8 +3449,11 @@
       <c r="J48">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3352,8 +3484,11 @@
       <c r="J49">
         <v>5849</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3384,8 +3519,11 @@
       <c r="J50">
         <v>1098</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3416,8 +3554,11 @@
       <c r="J51">
         <v>7392</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>7426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3448,8 +3589,11 @@
       <c r="J52">
         <v>3013</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3480,8 +3624,11 @@
       <c r="J53">
         <v>25396</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>25392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3512,8 +3659,11 @@
       <c r="J54">
         <v>3714</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3544,8 +3694,11 @@
       <c r="J55">
         <v>3674</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3576,8 +3729,11 @@
       <c r="J56">
         <v>1216</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3608,8 +3764,11 @@
       <c r="J57">
         <v>1115</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3640,8 +3799,11 @@
       <c r="J58">
         <v>442</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3672,8 +3834,11 @@
       <c r="J59">
         <v>282</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3704,8 +3869,11 @@
       <c r="J60">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3736,8 +3904,11 @@
       <c r="J61">
         <v>2138</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -3768,8 +3939,11 @@
       <c r="J62">
         <v>371</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -3800,8 +3974,11 @@
       <c r="J63">
         <v>131</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -3832,8 +4009,11 @@
       <c r="J64">
         <v>2148</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -3864,8 +4044,11 @@
       <c r="J65">
         <v>6300</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>6326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4079,11 @@
       <c r="J66">
         <v>24336</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>24517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -3928,8 +4114,11 @@
       <c r="J67">
         <v>5893</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3960,8 +4149,11 @@
       <c r="J68">
         <v>3484</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -3992,8 +4184,11 @@
       <c r="J69">
         <v>916</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -4024,8 +4219,11 @@
       <c r="J70">
         <v>6158</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4056,8 +4254,11 @@
       <c r="J71">
         <v>13046</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>13138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4088,8 +4289,11 @@
       <c r="J72">
         <v>2991</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4120,8 +4324,11 @@
       <c r="J73">
         <v>1473</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -4152,8 +4359,11 @@
       <c r="J74">
         <v>650</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -4184,8 +4394,11 @@
       <c r="J75">
         <v>4847</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4216,8 +4429,11 @@
       <c r="J76">
         <v>50986</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <v>51493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4248,8 +4464,11 @@
       <c r="J77">
         <v>46141</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4280,8 +4499,11 @@
       <c r="J78">
         <v>67988</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <v>69830</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4312,8 +4534,11 @@
       <c r="J79">
         <v>4466</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4344,8 +4569,11 @@
       <c r="J80">
         <v>1299</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4376,8 +4604,11 @@
       <c r="J81">
         <v>20931</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>20782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4408,8 +4639,11 @@
       <c r="J82">
         <v>12299</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>12158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -4440,8 +4674,11 @@
       <c r="J83">
         <v>4705</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -4472,8 +4709,11 @@
       <c r="J84">
         <v>5682</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -4504,8 +4744,11 @@
       <c r="J85">
         <v>763</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -4536,8 +4779,11 @@
       <c r="J86">
         <v>6670</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -4568,8 +4814,11 @@
       <c r="J87">
         <v>614</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -4600,8 +4849,11 @@
       <c r="J88">
         <v>2797</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -4632,8 +4884,11 @@
       <c r="J89">
         <v>4217</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -4664,8 +4919,11 @@
       <c r="J90">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4696,8 +4954,11 @@
       <c r="J91">
         <v>2352</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4728,8 +4989,11 @@
       <c r="J92">
         <v>258</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -4760,8 +5024,11 @@
       <c r="J93">
         <v>1186</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -4792,8 +5059,11 @@
       <c r="J94">
         <v>836</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -4824,8 +5094,11 @@
       <c r="J95">
         <v>13896</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>14094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -4856,8 +5129,11 @@
       <c r="J96">
         <v>6961</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -4888,8 +5164,11 @@
       <c r="J97">
         <v>442</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4920,8 +5199,11 @@
       <c r="J98">
         <v>1163</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -4952,8 +5234,11 @@
       <c r="J99">
         <v>16660</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>16760</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -4984,8 +5269,11 @@
       <c r="J100">
         <v>9523</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>9451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5016,8 +5304,11 @@
       <c r="J101">
         <v>438</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5048,8 +5339,11 @@
       <c r="J102">
         <v>61</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -5080,8 +5374,11 @@
       <c r="J103">
         <v>1073</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -5112,8 +5409,11 @@
       <c r="J104">
         <v>6374</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5144,8 +5444,11 @@
       <c r="J105">
         <v>291</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5176,8 +5479,11 @@
       <c r="J106">
         <v>55</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5208,8 +5514,11 @@
       <c r="J107">
         <v>3136</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -5240,8 +5549,11 @@
       <c r="J108">
         <v>15178</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>15293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5272,8 +5584,11 @@
       <c r="J109">
         <v>13996</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>14126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -5304,8 +5619,11 @@
       <c r="J110">
         <v>18452</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>18457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -5336,8 +5654,11 @@
       <c r="J111">
         <v>4090</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -5368,8 +5689,11 @@
       <c r="J112">
         <v>10507</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>10610</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -5400,8 +5724,11 @@
       <c r="J113">
         <v>323</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -5432,8 +5759,11 @@
       <c r="J114">
         <v>11315</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>11433</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -5464,8 +5794,11 @@
       <c r="J115">
         <v>8872</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>104</v>
       </c>
@@ -5496,8 +5829,11 @@
       <c r="J116">
         <v>1451</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -5528,8 +5864,11 @@
       <c r="J117">
         <v>4867</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -5560,8 +5899,11 @@
       <c r="J118">
         <v>1077</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -5592,8 +5934,11 @@
       <c r="J119">
         <v>3881</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -5624,8 +5969,11 @@
       <c r="J120">
         <v>3283</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -5656,8 +6004,11 @@
       <c r="J121">
         <v>6209</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -5688,8 +6039,11 @@
       <c r="J122">
         <v>2989</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -5720,8 +6074,11 @@
       <c r="J123">
         <v>6075</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -5752,8 +6109,11 @@
       <c r="J124">
         <v>1663</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -5784,8 +6144,11 @@
       <c r="J125">
         <v>38053</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>38195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>104</v>
       </c>
@@ -5816,8 +6179,11 @@
       <c r="J126">
         <v>35</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>104</v>
       </c>
@@ -5848,8 +6214,11 @@
       <c r="J127">
         <v>528</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -5880,8 +6249,11 @@
       <c r="J128">
         <v>1461</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -5912,8 +6284,11 @@
       <c r="J129">
         <v>1260</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>104</v>
       </c>
@@ -5944,8 +6319,11 @@
       <c r="J130">
         <v>1086</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>104</v>
       </c>
@@ -5976,8 +6354,11 @@
       <c r="J131">
         <v>285</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -6008,8 +6389,11 @@
       <c r="J132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>104</v>
       </c>
@@ -6040,8 +6424,11 @@
       <c r="J133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -6072,8 +6459,11 @@
       <c r="J134">
         <v>601</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>104</v>
       </c>
@@ -6104,8 +6494,11 @@
       <c r="J135">
         <v>71</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>104</v>
       </c>
@@ -6136,8 +6529,11 @@
       <c r="J136">
         <v>842</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -6168,8 +6564,11 @@
       <c r="J137">
         <v>1603</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>104</v>
       </c>
@@ -6200,8 +6599,11 @@
       <c r="J138">
         <v>1463</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>104</v>
       </c>
@@ -6232,8 +6634,11 @@
       <c r="J139">
         <v>1635</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>104</v>
       </c>
@@ -6264,8 +6669,11 @@
       <c r="J140">
         <v>269</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>104</v>
       </c>
@@ -6296,8 +6704,11 @@
       <c r="J141">
         <v>1216</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -6328,8 +6739,11 @@
       <c r="J142">
         <v>361</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>104</v>
       </c>
@@ -6360,8 +6774,11 @@
       <c r="J143">
         <v>2682</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>104</v>
       </c>
@@ -6392,8 +6809,11 @@
       <c r="J144">
         <v>23778</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>23852</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -6424,8 +6844,11 @@
       <c r="J145">
         <v>4109</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -6456,8 +6879,11 @@
       <c r="J146">
         <v>13418</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>13498</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>104</v>
       </c>
@@ -6488,8 +6914,11 @@
       <c r="J147">
         <v>1418</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>104</v>
       </c>
@@ -6520,8 +6949,11 @@
       <c r="J148">
         <v>5066</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -6552,8 +6984,11 @@
       <c r="J149">
         <v>1662</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>104</v>
       </c>
@@ -6584,8 +7019,11 @@
       <c r="J150">
         <v>287</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>104</v>
       </c>
@@ -6616,8 +7054,11 @@
       <c r="J151">
         <v>1163</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>104</v>
       </c>
@@ -6648,8 +7089,11 @@
       <c r="J152">
         <v>1894</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>104</v>
       </c>
@@ -6680,8 +7124,11 @@
       <c r="J153">
         <v>21</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>104</v>
       </c>
@@ -6712,8 +7159,11 @@
       <c r="J154">
         <v>3437</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>104</v>
       </c>
@@ -6744,8 +7194,11 @@
       <c r="J155">
         <v>25859</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>26202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>104</v>
       </c>
@@ -6776,8 +7229,11 @@
       <c r="J156">
         <v>18559</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>18618</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -6808,8 +7264,11 @@
       <c r="J157">
         <v>3184</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -6840,8 +7299,11 @@
       <c r="J158">
         <v>1893</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -6872,8 +7334,11 @@
       <c r="J159">
         <v>11670</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>11726</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>104</v>
       </c>
@@ -6904,8 +7369,11 @@
       <c r="J160">
         <v>146</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>104</v>
       </c>
@@ -6936,8 +7404,11 @@
       <c r="J161">
         <v>921</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>104</v>
       </c>
@@ -6968,8 +7439,11 @@
       <c r="J162">
         <v>24</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>104</v>
       </c>
@@ -7000,8 +7474,11 @@
       <c r="J163">
         <v>20924</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>20822</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>104</v>
       </c>
@@ -7032,8 +7509,11 @@
       <c r="J164">
         <v>802</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>104</v>
       </c>
@@ -7064,8 +7544,11 @@
       <c r="J165">
         <v>6108</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>104</v>
       </c>
@@ -7096,8 +7579,11 @@
       <c r="J166">
         <v>696</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>104</v>
       </c>
@@ -7128,8 +7614,11 @@
       <c r="J167">
         <v>1251</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K167">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>104</v>
       </c>
@@ -7160,8 +7649,11 @@
       <c r="J168">
         <v>14860</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>14836</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>104</v>
       </c>
@@ -7192,8 +7684,11 @@
       <c r="J169">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K169">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>104</v>
       </c>
@@ -7224,8 +7719,11 @@
       <c r="J170">
         <v>2762</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>104</v>
       </c>
@@ -7256,8 +7754,11 @@
       <c r="J171">
         <v>9766</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K171">
+        <v>9991</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>104</v>
       </c>
@@ -7288,8 +7789,11 @@
       <c r="J172">
         <v>3268</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K172">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>104</v>
       </c>
@@ -7320,8 +7824,11 @@
       <c r="J173">
         <v>1434</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>104</v>
       </c>
@@ -7352,8 +7859,11 @@
       <c r="J174">
         <v>349</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>104</v>
       </c>
@@ -7384,8 +7894,11 @@
       <c r="J175">
         <v>28</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>104</v>
       </c>
@@ -7416,8 +7929,11 @@
       <c r="J176">
         <v>214</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K176">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>104</v>
       </c>
@@ -7448,8 +7964,11 @@
       <c r="J177">
         <v>1232</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K177">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>104</v>
       </c>
@@ -7480,8 +7999,11 @@
       <c r="J178">
         <v>2764</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K178">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>104</v>
       </c>
@@ -7512,8 +8034,11 @@
       <c r="J179">
         <v>3451</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K179">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>104</v>
       </c>
@@ -7544,8 +8069,11 @@
       <c r="J180">
         <v>1152</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K180">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>104</v>
       </c>
@@ -7576,8 +8104,11 @@
       <c r="J181">
         <v>1677</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K181">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -7608,8 +8139,11 @@
       <c r="J182">
         <v>623</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -7640,8 +8174,11 @@
       <c r="J183">
         <v>2659</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K183">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>104</v>
       </c>
@@ -7672,8 +8209,11 @@
       <c r="J184">
         <v>30408</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K184">
+        <v>30696</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>104</v>
       </c>
@@ -7704,8 +8244,11 @@
       <c r="J185">
         <v>2182</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>104</v>
       </c>
@@ -7736,8 +8279,11 @@
       <c r="J186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>104</v>
       </c>
@@ -7768,8 +8314,11 @@
       <c r="J187">
         <v>1936</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>104</v>
       </c>
@@ -7800,8 +8349,11 @@
       <c r="J188">
         <v>2098</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K188">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -7832,8 +8384,11 @@
       <c r="J189">
         <v>122</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K189">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>104</v>
       </c>
@@ -7864,8 +8419,11 @@
       <c r="J190">
         <v>470</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K190">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>104</v>
       </c>
@@ -7896,8 +8454,11 @@
       <c r="J191">
         <v>114</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -7928,8 +8489,11 @@
       <c r="J192">
         <v>241</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K192">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>104</v>
       </c>
@@ -7960,8 +8524,11 @@
       <c r="J193">
         <v>3721</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K193">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>104</v>
       </c>
@@ -7992,8 +8559,11 @@
       <c r="J194">
         <v>1407</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>104</v>
       </c>
@@ -8024,8 +8594,11 @@
       <c r="J195">
         <v>26</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K195">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>104</v>
       </c>
@@ -8056,8 +8629,11 @@
       <c r="J196">
         <v>10824</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>10867</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -8088,8 +8664,11 @@
       <c r="J197">
         <v>5772</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K197">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -8120,8 +8699,11 @@
       <c r="J198">
         <v>2031</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K198">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>104</v>
       </c>
@@ -8152,8 +8734,11 @@
       <c r="J199">
         <v>103</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K199">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>104</v>
       </c>
@@ -8184,8 +8769,11 @@
       <c r="J200">
         <v>210</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>104</v>
       </c>
@@ -8216,8 +8804,11 @@
       <c r="J201">
         <v>149</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K201">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>104</v>
       </c>
@@ -8248,8 +8839,11 @@
       <c r="J202">
         <v>1004</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K202">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>104</v>
       </c>
@@ -8280,8 +8874,11 @@
       <c r="J203">
         <v>1870</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K203">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>104</v>
       </c>
@@ -8312,8 +8909,11 @@
       <c r="J204">
         <v>5379</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>104</v>
       </c>
@@ -8344,8 +8944,11 @@
       <c r="J205">
         <v>1061</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K205">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>104</v>
       </c>
@@ -8376,8 +8979,11 @@
       <c r="J206">
         <v>4463</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -8408,8 +9014,11 @@
       <c r="J207">
         <v>254</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>104</v>
       </c>
@@ -8440,8 +9049,11 @@
       <c r="J208">
         <v>1351</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>104</v>
       </c>
@@ -8472,8 +9084,11 @@
       <c r="J209">
         <v>215</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>104</v>
       </c>
@@ -8504,8 +9119,11 @@
       <c r="J210">
         <v>51</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K210">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>251</v>
       </c>
@@ -8536,8 +9154,11 @@
       <c r="J211">
         <v>33</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>251</v>
       </c>
@@ -8568,8 +9189,11 @@
       <c r="J212">
         <v>228</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>251</v>
       </c>
@@ -8600,8 +9224,11 @@
       <c r="J213">
         <v>831</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -8632,8 +9259,11 @@
       <c r="J214">
         <v>181</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>251</v>
       </c>
@@ -8664,8 +9294,11 @@
       <c r="J215">
         <v>575</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K215">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>251</v>
       </c>
@@ -8696,8 +9329,11 @@
       <c r="J216">
         <v>35</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K216">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>251</v>
       </c>
@@ -8728,8 +9364,11 @@
       <c r="J217">
         <v>60</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K217">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>251</v>
       </c>
@@ -8760,8 +9399,11 @@
       <c r="J218">
         <v>767</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -8792,8 +9434,11 @@
       <c r="J219">
         <v>3238</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>264</v>
       </c>
@@ -8824,8 +9469,11 @@
       <c r="J220">
         <v>2558</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -8856,8 +9504,11 @@
       <c r="J221">
         <v>57679</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K221">
+        <v>57621</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>264</v>
       </c>
@@ -8888,8 +9539,11 @@
       <c r="J222">
         <v>3847</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K222">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>264</v>
       </c>
@@ -8920,8 +9574,11 @@
       <c r="J223">
         <v>6491</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>264</v>
       </c>
@@ -8952,8 +9609,11 @@
       <c r="J224">
         <v>339</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K224">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>264</v>
       </c>
@@ -8984,8 +9644,11 @@
       <c r="J225">
         <v>38275</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K225">
+        <v>38024</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>264</v>
       </c>
@@ -9016,8 +9679,11 @@
       <c r="J226">
         <v>158851</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K226">
+        <v>158233</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>264</v>
       </c>
@@ -9048,8 +9714,11 @@
       <c r="J227">
         <v>37970</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <v>38055</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>264</v>
       </c>
@@ -9080,8 +9749,11 @@
       <c r="J228">
         <v>951</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K228">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>264</v>
       </c>
@@ -9112,8 +9784,11 @@
       <c r="J229">
         <v>94</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K229">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>264</v>
       </c>
@@ -9144,8 +9819,11 @@
       <c r="J230">
         <v>2060</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K230">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>264</v>
       </c>
@@ -9176,8 +9854,11 @@
       <c r="J231">
         <v>700</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K231">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>264</v>
       </c>
@@ -9208,8 +9889,11 @@
       <c r="J232">
         <v>3061</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K232">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -9240,8 +9924,11 @@
       <c r="J233">
         <v>1624</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K233">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>264</v>
       </c>
@@ -9272,8 +9959,11 @@
       <c r="J234">
         <v>49853</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K234">
+        <v>46161</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -9304,8 +9994,11 @@
       <c r="J235">
         <v>150</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K235">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>264</v>
       </c>
@@ -9336,8 +10029,11 @@
       <c r="J236">
         <v>21410</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K236">
+        <v>21657</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -9368,8 +10064,11 @@
       <c r="J237">
         <v>3167</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K237">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>264</v>
       </c>
@@ -9400,8 +10099,11 @@
       <c r="J238">
         <v>8099</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K238">
+        <v>8184</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>264</v>
       </c>
@@ -9432,8 +10134,11 @@
       <c r="J239">
         <v>25057</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K239">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -9464,8 +10169,11 @@
       <c r="J240">
         <v>1478</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K240">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -9496,8 +10204,11 @@
       <c r="J241">
         <v>29</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K241">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>264</v>
       </c>
@@ -9528,8 +10239,11 @@
       <c r="J242">
         <v>2899</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K242">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -9560,8 +10274,11 @@
       <c r="J243">
         <v>15979</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K243">
+        <v>16085</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>264</v>
       </c>
@@ -9592,8 +10309,11 @@
       <c r="J244">
         <v>6055</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K244">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>264</v>
       </c>
@@ -9624,8 +10344,11 @@
       <c r="J245">
         <v>1480</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K245">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -9656,8 +10379,11 @@
       <c r="J246">
         <v>1323</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K246">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>264</v>
       </c>
@@ -9688,8 +10414,11 @@
       <c r="J247">
         <v>2613</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K247">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -9720,8 +10449,11 @@
       <c r="J248">
         <v>2372</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K248">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -9752,8 +10484,11 @@
       <c r="J249">
         <v>682</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K249">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -9784,8 +10519,11 @@
       <c r="J250">
         <v>506</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K250">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>264</v>
       </c>
@@ -9816,8 +10554,11 @@
       <c r="J251">
         <v>11680</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K251">
+        <v>11672</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -9848,8 +10589,11 @@
       <c r="J252">
         <v>82</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K252">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -9880,8 +10624,11 @@
       <c r="J253">
         <v>3779</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K253">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>264</v>
       </c>
@@ -9912,8 +10659,11 @@
       <c r="J254">
         <v>1309</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K254">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -9944,8 +10694,11 @@
       <c r="J255">
         <v>3476</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K255">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -9976,8 +10729,11 @@
       <c r="J256">
         <v>2980</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K256">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -10008,8 +10764,11 @@
       <c r="J257">
         <v>35252</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K257">
+        <v>34909</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -10040,8 +10799,11 @@
       <c r="J258">
         <v>130614</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K258">
+        <v>131906</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -10072,8 +10834,11 @@
       <c r="J259">
         <v>646</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K259">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>264</v>
       </c>
@@ -10104,8 +10869,11 @@
       <c r="J260">
         <v>25</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K260">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -10136,8 +10904,11 @@
       <c r="J261">
         <v>40</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K261">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -10168,8 +10939,11 @@
       <c r="J262">
         <v>3792</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K262">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -10200,8 +10974,11 @@
       <c r="J263">
         <v>7248</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K263">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -10232,8 +11009,11 @@
       <c r="J264">
         <v>10274</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K264">
+        <v>10429</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -10264,8 +11044,11 @@
       <c r="J265">
         <v>8021</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K265">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -10296,8 +11079,11 @@
       <c r="J266">
         <v>10834</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K266">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>321</v>
       </c>
@@ -10328,8 +11114,11 @@
       <c r="J267">
         <v>887</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K267">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>321</v>
       </c>
@@ -10360,8 +11149,11 @@
       <c r="J268">
         <v>17338</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K268">
+        <v>17360</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>321</v>
       </c>
@@ -10392,8 +11184,11 @@
       <c r="J269">
         <v>17753</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K269">
+        <v>17869</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>321</v>
       </c>
@@ -10424,8 +11219,11 @@
       <c r="J270">
         <v>22</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K270">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>321</v>
       </c>
@@ -10456,8 +11254,11 @@
       <c r="J271">
         <v>1074</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K271">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>321</v>
       </c>
@@ -10488,8 +11289,11 @@
       <c r="J272">
         <v>4826</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K272">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>321</v>
       </c>
@@ -10520,8 +11324,11 @@
       <c r="J273">
         <v>5088</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K273">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>321</v>
       </c>
@@ -10552,8 +11359,11 @@
       <c r="J274">
         <v>85</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K274">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>321</v>
       </c>
@@ -10584,8 +11394,11 @@
       <c r="J275">
         <v>666</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K275">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>321</v>
       </c>
@@ -10616,8 +11429,11 @@
       <c r="J276">
         <v>39800</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K276">
+        <v>40517</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>321</v>
       </c>
@@ -10648,8 +11464,11 @@
       <c r="J277">
         <v>16693</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K277">
+        <v>16752</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>321</v>
       </c>
@@ -10679,6 +11498,9 @@
       </c>
       <c r="J278">
         <v>1615</v>
+      </c>
+      <c r="K278">
+        <v>1634</v>
       </c>
     </row>
   </sheetData>

--- a/Historicos/ta_jalisco_div_gpo_actividad.xlsx
+++ b/Historicos/ta_jalisco_div_gpo_actividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C2A5CE-CCD0-470C-BC88-DF21F4B4D379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AD9DF3-D5A1-42DA-83C5-0C756BC66BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="347">
   <si>
     <t>grupo</t>
   </si>
@@ -1048,9 +1048,6 @@
     <t>imss_2024_6</t>
   </si>
   <si>
-    <t>diciembre 2023 - julio 2024</t>
-  </si>
-  <si>
     <t>division</t>
   </si>
   <si>
@@ -1058,6 +1055,12 @@
   </si>
   <si>
     <t>imss_2024_7</t>
+  </si>
+  <si>
+    <t>imss_2024_8</t>
+  </si>
+  <si>
+    <t>diciembre 2023 - agosto 2024</t>
   </si>
 </sst>
 </file>
@@ -1922,41 +1925,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K278"/>
+  <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="12" width="26.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -1980,10 +1986,13 @@
         <v>341</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2017,8 +2026,11 @@
       <c r="K7">
         <v>83894</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>82976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2052,8 +2064,11 @@
       <c r="K8">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2087,8 +2102,11 @@
       <c r="K9">
         <v>24300</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>24235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2122,8 +2140,11 @@
       <c r="K10">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2157,8 +2178,11 @@
       <c r="K11">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2192,8 +2216,11 @@
       <c r="K12">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2227,8 +2254,11 @@
       <c r="K13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2262,8 +2292,11 @@
       <c r="K14">
         <v>497</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2297,8 +2330,11 @@
       <c r="K15">
         <v>57805</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>57673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2332,8 +2368,11 @@
       <c r="K16">
         <v>19990</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>20318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2367,8 +2406,11 @@
       <c r="K17">
         <v>499</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2402,8 +2444,11 @@
       <c r="K18">
         <v>10851</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>10796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2437,8 +2482,11 @@
       <c r="K19">
         <v>8398</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>8631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2472,8 +2520,11 @@
       <c r="K20">
         <v>3033</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2507,8 +2558,11 @@
       <c r="K21">
         <v>4519</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2542,8 +2596,11 @@
       <c r="K22">
         <v>1991</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2577,8 +2634,11 @@
       <c r="K23">
         <v>1387</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2612,8 +2672,11 @@
       <c r="K24">
         <v>950</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2647,8 +2710,11 @@
       <c r="K25">
         <v>32889</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>33161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2682,8 +2748,11 @@
       <c r="K26">
         <v>5091</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2717,8 +2786,11 @@
       <c r="K27">
         <v>1725</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2752,8 +2824,11 @@
       <c r="K28">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2787,8 +2862,11 @@
       <c r="K29">
         <v>352</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2822,8 +2900,11 @@
       <c r="K30">
         <v>7402</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2857,8 +2938,11 @@
       <c r="K31">
         <v>15916</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2892,8 +2976,11 @@
       <c r="K32">
         <v>6432</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>6479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2927,8 +3014,11 @@
       <c r="K33">
         <v>6532</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2962,8 +3052,11 @@
       <c r="K34">
         <v>1292</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2997,8 +3090,11 @@
       <c r="K35">
         <v>417</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="K36">
         <v>4226</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3067,8 +3166,11 @@
       <c r="K37">
         <v>1332</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3102,8 +3204,11 @@
       <c r="K38">
         <v>22538</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>22240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="K39">
         <v>2655</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -3172,8 +3280,11 @@
       <c r="K40">
         <v>1130</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3207,8 +3318,11 @@
       <c r="K41">
         <v>5353</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3242,8 +3356,11 @@
       <c r="K42">
         <v>10942</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>10890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3394,11 @@
       <c r="K43">
         <v>2149</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3312,8 +3432,11 @@
       <c r="K44">
         <v>862</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3347,8 +3470,11 @@
       <c r="K45">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3382,8 +3508,11 @@
       <c r="K46">
         <v>511</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3417,8 +3546,11 @@
       <c r="K47">
         <v>8772</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3452,8 +3584,11 @@
       <c r="K48">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3487,8 +3622,11 @@
       <c r="K49">
         <v>5812</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3522,8 +3660,11 @@
       <c r="K50">
         <v>1083</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3557,8 +3698,11 @@
       <c r="K51">
         <v>7426</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>7426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3592,8 +3736,11 @@
       <c r="K52">
         <v>2987</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3627,8 +3774,11 @@
       <c r="K53">
         <v>25392</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>25409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3662,8 +3812,11 @@
       <c r="K54">
         <v>3776</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3697,8 +3850,11 @@
       <c r="K55">
         <v>3678</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3732,8 +3888,11 @@
       <c r="K56">
         <v>1209</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3767,8 +3926,11 @@
       <c r="K57">
         <v>1117</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3802,8 +3964,11 @@
       <c r="K58">
         <v>449</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="K59">
         <v>318</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3872,8 +4040,11 @@
       <c r="K60">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3907,8 +4078,11 @@
       <c r="K61">
         <v>2167</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -3942,8 +4116,11 @@
       <c r="K62">
         <v>393</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -3977,8 +4154,11 @@
       <c r="K63">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4012,8 +4192,11 @@
       <c r="K64">
         <v>2141</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4047,8 +4230,11 @@
       <c r="K65">
         <v>6326</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -4082,8 +4268,11 @@
       <c r="K66">
         <v>24517</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>24347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4117,8 +4306,11 @@
       <c r="K67">
         <v>5968</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -4152,8 +4344,11 @@
       <c r="K68">
         <v>3574</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4187,8 +4382,11 @@
       <c r="K69">
         <v>1007</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -4222,8 +4420,11 @@
       <c r="K70">
         <v>6226</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4257,8 +4458,11 @@
       <c r="K71">
         <v>13138</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>13127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4292,8 +4496,11 @@
       <c r="K72">
         <v>2969</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4327,8 +4534,11 @@
       <c r="K73">
         <v>1497</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4572,11 @@
       <c r="K74">
         <v>666</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -4397,8 +4610,11 @@
       <c r="K75">
         <v>4726</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4432,8 +4648,11 @@
       <c r="K76">
         <v>51493</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>51042</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4467,8 +4686,11 @@
       <c r="K77">
         <v>45758</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4502,8 +4724,11 @@
       <c r="K78">
         <v>69830</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>69299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4537,8 +4762,11 @@
       <c r="K79">
         <v>4459</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4572,8 +4800,11 @@
       <c r="K80">
         <v>1369</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4607,8 +4838,11 @@
       <c r="K81">
         <v>20782</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>20688</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4642,8 +4876,11 @@
       <c r="K82">
         <v>12158</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>12713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -4677,8 +4914,11 @@
       <c r="K83">
         <v>4670</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -4712,8 +4952,11 @@
       <c r="K84">
         <v>5707</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -4747,8 +4990,11 @@
       <c r="K85">
         <v>722</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -4782,8 +5028,11 @@
       <c r="K86">
         <v>6723</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -4817,8 +5066,11 @@
       <c r="K87">
         <v>629</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -4852,8 +5104,11 @@
       <c r="K88">
         <v>2726</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -4887,8 +5142,11 @@
       <c r="K89">
         <v>4227</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -4922,8 +5180,11 @@
       <c r="K90">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4957,8 +5218,11 @@
       <c r="K91">
         <v>2387</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4992,8 +5256,11 @@
       <c r="K92">
         <v>253</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5027,8 +5294,11 @@
       <c r="K93">
         <v>1193</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -5062,8 +5332,11 @@
       <c r="K94">
         <v>838</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5097,8 +5370,11 @@
       <c r="K95">
         <v>14094</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -5132,8 +5408,11 @@
       <c r="K96">
         <v>7056</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -5167,8 +5446,11 @@
       <c r="K97">
         <v>437</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5202,8 +5484,11 @@
       <c r="K98">
         <v>1153</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5237,8 +5522,11 @@
       <c r="K99">
         <v>16760</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>16873</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -5272,8 +5560,11 @@
       <c r="K100">
         <v>9451</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5307,8 +5598,11 @@
       <c r="K101">
         <v>439</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5342,8 +5636,11 @@
       <c r="K102">
         <v>61</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -5377,8 +5674,11 @@
       <c r="K103">
         <v>1070</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -5412,8 +5712,11 @@
       <c r="K104">
         <v>6358</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5447,8 +5750,11 @@
       <c r="K105">
         <v>293</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5482,8 +5788,11 @@
       <c r="K106">
         <v>53</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5517,8 +5826,11 @@
       <c r="K107">
         <v>3034</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -5552,8 +5864,11 @@
       <c r="K108">
         <v>15293</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>15320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5587,8 +5902,11 @@
       <c r="K109">
         <v>14126</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>14291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -5622,8 +5940,11 @@
       <c r="K110">
         <v>18457</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>18439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -5657,8 +5978,11 @@
       <c r="K111">
         <v>4079</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -5692,8 +6016,11 @@
       <c r="K112">
         <v>10610</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>10692</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -5727,8 +6054,11 @@
       <c r="K113">
         <v>330</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -5762,8 +6092,11 @@
       <c r="K114">
         <v>11433</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>11582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -5797,8 +6130,11 @@
       <c r="K115">
         <v>8915</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>104</v>
       </c>
@@ -5832,8 +6168,11 @@
       <c r="K116">
         <v>1437</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -5867,8 +6206,11 @@
       <c r="K117">
         <v>4875</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -5902,8 +6244,11 @@
       <c r="K118">
         <v>1091</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -5937,8 +6282,11 @@
       <c r="K119">
         <v>3877</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -5972,8 +6320,11 @@
       <c r="K120">
         <v>3322</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -6007,8 +6358,11 @@
       <c r="K121">
         <v>6153</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -6042,8 +6396,11 @@
       <c r="K122">
         <v>2876</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -6077,8 +6434,11 @@
       <c r="K123">
         <v>6040</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -6112,8 +6472,11 @@
       <c r="K124">
         <v>1633</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -6147,8 +6510,11 @@
       <c r="K125">
         <v>38195</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>38259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>104</v>
       </c>
@@ -6182,8 +6548,11 @@
       <c r="K126">
         <v>35</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>104</v>
       </c>
@@ -6217,8 +6586,11 @@
       <c r="K127">
         <v>536</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -6252,8 +6624,11 @@
       <c r="K128">
         <v>1466</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -6287,8 +6662,11 @@
       <c r="K129">
         <v>1269</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>104</v>
       </c>
@@ -6322,8 +6700,11 @@
       <c r="K130">
         <v>1086</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>104</v>
       </c>
@@ -6357,8 +6738,11 @@
       <c r="K131">
         <v>295</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -6392,8 +6776,11 @@
       <c r="K132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>104</v>
       </c>
@@ -6427,8 +6814,11 @@
       <c r="K133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -6462,8 +6852,11 @@
       <c r="K134">
         <v>607</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>104</v>
       </c>
@@ -6497,8 +6890,11 @@
       <c r="K135">
         <v>71</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>104</v>
       </c>
@@ -6532,8 +6928,11 @@
       <c r="K136">
         <v>849</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -6567,8 +6966,11 @@
       <c r="K137">
         <v>1594</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>104</v>
       </c>
@@ -6602,8 +7004,11 @@
       <c r="K138">
         <v>1482</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>104</v>
       </c>
@@ -6637,8 +7042,11 @@
       <c r="K139">
         <v>1629</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>104</v>
       </c>
@@ -6672,8 +7080,11 @@
       <c r="K140">
         <v>261</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>104</v>
       </c>
@@ -6707,8 +7118,11 @@
       <c r="K141">
         <v>1179</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -6742,8 +7156,11 @@
       <c r="K142">
         <v>339</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>104</v>
       </c>
@@ -6777,8 +7194,11 @@
       <c r="K143">
         <v>2727</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>24030</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>104</v>
       </c>
@@ -6812,8 +7232,11 @@
       <c r="K144">
         <v>23852</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -6847,8 +7270,11 @@
       <c r="K145">
         <v>4210</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>13549</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -6882,8 +7308,11 @@
       <c r="K146">
         <v>13498</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>104</v>
       </c>
@@ -6917,8 +7346,11 @@
       <c r="K147">
         <v>1415</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>104</v>
       </c>
@@ -6952,8 +7384,11 @@
       <c r="K148">
         <v>5166</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -6987,8 +7422,11 @@
       <c r="K149">
         <v>1591</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>104</v>
       </c>
@@ -7022,8 +7460,11 @@
       <c r="K150">
         <v>271</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>104</v>
       </c>
@@ -7057,8 +7498,11 @@
       <c r="K151">
         <v>1166</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>104</v>
       </c>
@@ -7092,8 +7536,11 @@
       <c r="K152">
         <v>1912</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>104</v>
       </c>
@@ -7127,8 +7574,11 @@
       <c r="K153">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L153">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>104</v>
       </c>
@@ -7162,8 +7612,11 @@
       <c r="K154">
         <v>3493</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154">
+        <v>26406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>104</v>
       </c>
@@ -7197,8 +7650,11 @@
       <c r="K155">
         <v>26202</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L155">
+        <v>18631</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>104</v>
       </c>
@@ -7232,8 +7688,11 @@
       <c r="K156">
         <v>18618</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -7267,8 +7726,11 @@
       <c r="K157">
         <v>3092</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L157">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -7302,8 +7764,11 @@
       <c r="K158">
         <v>1916</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L158">
+        <v>11833</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -7337,8 +7802,11 @@
       <c r="K159">
         <v>11726</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>104</v>
       </c>
@@ -7372,8 +7840,11 @@
       <c r="K160">
         <v>150</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>104</v>
       </c>
@@ -7407,8 +7878,11 @@
       <c r="K161">
         <v>1035</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L161">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>104</v>
       </c>
@@ -7442,8 +7916,11 @@
       <c r="K162">
         <v>44</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L162">
+        <v>20510</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>104</v>
       </c>
@@ -7477,8 +7954,11 @@
       <c r="K163">
         <v>20822</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>104</v>
       </c>
@@ -7512,8 +7992,11 @@
       <c r="K164">
         <v>839</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L164">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>104</v>
       </c>
@@ -7547,8 +8030,11 @@
       <c r="K165">
         <v>6153</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L165">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>104</v>
       </c>
@@ -7582,8 +8068,11 @@
       <c r="K166">
         <v>721</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L166">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>104</v>
       </c>
@@ -7617,8 +8106,11 @@
       <c r="K167">
         <v>1250</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>104</v>
       </c>
@@ -7652,8 +8144,11 @@
       <c r="K168">
         <v>14836</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>104</v>
       </c>
@@ -7687,8 +8182,11 @@
       <c r="K169">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L169">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>104</v>
       </c>
@@ -7722,8 +8220,11 @@
       <c r="K170">
         <v>2815</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>104</v>
       </c>
@@ -7757,8 +8258,11 @@
       <c r="K171">
         <v>9991</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L171">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>104</v>
       </c>
@@ -7792,8 +8296,11 @@
       <c r="K172">
         <v>3312</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L172">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>104</v>
       </c>
@@ -7827,8 +8334,11 @@
       <c r="K173">
         <v>1460</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L173">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>104</v>
       </c>
@@ -7862,8 +8372,11 @@
       <c r="K174">
         <v>341</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L174">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>104</v>
       </c>
@@ -7897,8 +8410,11 @@
       <c r="K175">
         <v>28</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L175">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>104</v>
       </c>
@@ -7932,8 +8448,11 @@
       <c r="K176">
         <v>210</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>104</v>
       </c>
@@ -7967,8 +8486,11 @@
       <c r="K177">
         <v>1259</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L177">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>104</v>
       </c>
@@ -8002,8 +8524,11 @@
       <c r="K178">
         <v>2839</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L178">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>104</v>
       </c>
@@ -8037,8 +8562,11 @@
       <c r="K179">
         <v>3465</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L179">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>104</v>
       </c>
@@ -8072,8 +8600,11 @@
       <c r="K180">
         <v>1135</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>104</v>
       </c>
@@ -8107,8 +8638,11 @@
       <c r="K181">
         <v>1683</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L181">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -8142,8 +8676,11 @@
       <c r="K182">
         <v>624</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -8177,8 +8714,11 @@
       <c r="K183">
         <v>2655</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L183">
+        <v>30797</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>104</v>
       </c>
@@ -8212,8 +8752,11 @@
       <c r="K184">
         <v>30696</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L184">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>104</v>
       </c>
@@ -8247,8 +8790,11 @@
       <c r="K185">
         <v>2178</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>104</v>
       </c>
@@ -8282,8 +8828,11 @@
       <c r="K186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L186">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>104</v>
       </c>
@@ -8317,8 +8866,11 @@
       <c r="K187">
         <v>1943</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L187">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>104</v>
       </c>
@@ -8352,8 +8904,11 @@
       <c r="K188">
         <v>2134</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L188">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -8387,8 +8942,11 @@
       <c r="K189">
         <v>120</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L189">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>104</v>
       </c>
@@ -8422,8 +8980,11 @@
       <c r="K190">
         <v>467</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L190">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>104</v>
       </c>
@@ -8457,8 +9018,11 @@
       <c r="K191">
         <v>117</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L191">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -8492,8 +9056,11 @@
       <c r="K192">
         <v>240</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L192">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>104</v>
       </c>
@@ -8527,8 +9094,11 @@
       <c r="K193">
         <v>3758</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>104</v>
       </c>
@@ -8562,8 +9132,11 @@
       <c r="K194">
         <v>1358</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L194">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>104</v>
       </c>
@@ -8597,8 +9170,11 @@
       <c r="K195">
         <v>27</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L195">
+        <v>10836</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>104</v>
       </c>
@@ -8632,8 +9208,11 @@
       <c r="K196">
         <v>10867</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L196">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -8667,8 +9246,11 @@
       <c r="K197">
         <v>5870</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L197">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -8702,8 +9284,11 @@
       <c r="K198">
         <v>2083</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L198">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>104</v>
       </c>
@@ -8737,8 +9322,11 @@
       <c r="K199">
         <v>104</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L199">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>104</v>
       </c>
@@ -8772,8 +9360,11 @@
       <c r="K200">
         <v>214</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L200">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>104</v>
       </c>
@@ -8807,8 +9398,11 @@
       <c r="K201">
         <v>154</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L201">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>104</v>
       </c>
@@ -8842,8 +9436,11 @@
       <c r="K202">
         <v>1035</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L202">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>104</v>
       </c>
@@ -8877,8 +9474,11 @@
       <c r="K203">
         <v>1829</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L203">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>104</v>
       </c>
@@ -8912,8 +9512,11 @@
       <c r="K204">
         <v>5403</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>104</v>
       </c>
@@ -8947,8 +9550,11 @@
       <c r="K205">
         <v>1087</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L205">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>104</v>
       </c>
@@ -8982,8 +9588,11 @@
       <c r="K206">
         <v>4387</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L206">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -9017,8 +9626,11 @@
       <c r="K207">
         <v>258</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L207">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>104</v>
       </c>
@@ -9052,8 +9664,11 @@
       <c r="K208">
         <v>1364</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L208">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>104</v>
       </c>
@@ -9087,8 +9702,11 @@
       <c r="K209">
         <v>216</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L209">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>104</v>
       </c>
@@ -9122,8 +9740,11 @@
       <c r="K210">
         <v>46</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L210">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>251</v>
       </c>
@@ -9157,8 +9778,11 @@
       <c r="K211">
         <v>37</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>251</v>
       </c>
@@ -9192,8 +9816,11 @@
       <c r="K212">
         <v>255</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L212">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>251</v>
       </c>
@@ -9227,8 +9854,11 @@
       <c r="K213">
         <v>828</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L213">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -9262,8 +9892,11 @@
       <c r="K214">
         <v>149</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>251</v>
       </c>
@@ -9297,8 +9930,11 @@
       <c r="K215">
         <v>578</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>251</v>
       </c>
@@ -9332,8 +9968,11 @@
       <c r="K216">
         <v>103</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>251</v>
       </c>
@@ -9367,8 +10006,11 @@
       <c r="K217">
         <v>38</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>251</v>
       </c>
@@ -9402,8 +10044,11 @@
       <c r="K218">
         <v>805</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L218">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -9437,8 +10082,11 @@
       <c r="K219">
         <v>3233</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L219">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>264</v>
       </c>
@@ -9472,8 +10120,11 @@
       <c r="K220">
         <v>2559</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L220">
+        <v>57775</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -9507,8 +10158,11 @@
       <c r="K221">
         <v>57621</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L221">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>264</v>
       </c>
@@ -9542,8 +10196,11 @@
       <c r="K222">
         <v>3909</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L222">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>264</v>
       </c>
@@ -9577,8 +10234,11 @@
       <c r="K223">
         <v>6455</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L223">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>264</v>
       </c>
@@ -9612,8 +10272,11 @@
       <c r="K224">
         <v>336</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L224">
+        <v>37861</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>264</v>
       </c>
@@ -9647,8 +10310,11 @@
       <c r="K225">
         <v>38024</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L225">
+        <v>157604</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>264</v>
       </c>
@@ -9682,8 +10348,11 @@
       <c r="K226">
         <v>158233</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L226">
+        <v>37821</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>264</v>
       </c>
@@ -9717,8 +10386,11 @@
       <c r="K227">
         <v>38055</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L227">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>264</v>
       </c>
@@ -9752,8 +10424,11 @@
       <c r="K228">
         <v>978</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L228">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>264</v>
       </c>
@@ -9787,8 +10462,11 @@
       <c r="K229">
         <v>81</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L229">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>264</v>
       </c>
@@ -9822,8 +10500,11 @@
       <c r="K230">
         <v>2004</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L230">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>264</v>
       </c>
@@ -9857,8 +10538,11 @@
       <c r="K231">
         <v>709</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L231">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>264</v>
       </c>
@@ -9892,8 +10576,11 @@
       <c r="K232">
         <v>3208</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L232">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -9927,8 +10614,11 @@
       <c r="K233">
         <v>1645</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L233">
+        <v>49717</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>264</v>
       </c>
@@ -9962,8 +10652,11 @@
       <c r="K234">
         <v>46161</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L234">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -9997,8 +10690,11 @@
       <c r="K235">
         <v>152</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L235">
+        <v>21683</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>264</v>
       </c>
@@ -10032,8 +10728,11 @@
       <c r="K236">
         <v>21657</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L236">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -10067,8 +10766,11 @@
       <c r="K237">
         <v>3134</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L237">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>264</v>
       </c>
@@ -10102,8 +10804,11 @@
       <c r="K238">
         <v>8184</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L238">
+        <v>25474</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>264</v>
       </c>
@@ -10137,8 +10842,11 @@
       <c r="K239">
         <v>25272</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L239">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -10172,8 +10880,11 @@
       <c r="K240">
         <v>1463</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L240">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -10207,8 +10918,11 @@
       <c r="K241">
         <v>29</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L241">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>264</v>
       </c>
@@ -10242,8 +10956,11 @@
       <c r="K242">
         <v>2909</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L242">
+        <v>15917</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -10277,8 +10994,11 @@
       <c r="K243">
         <v>16085</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L243">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>264</v>
       </c>
@@ -10312,8 +11032,11 @@
       <c r="K244">
         <v>6125</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L244">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>264</v>
       </c>
@@ -10347,8 +11070,11 @@
       <c r="K245">
         <v>1491</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L245">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -10382,8 +11108,11 @@
       <c r="K246">
         <v>1321</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L246">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>264</v>
       </c>
@@ -10417,8 +11146,11 @@
       <c r="K247">
         <v>2866</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L247">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -10452,8 +11184,11 @@
       <c r="K248">
         <v>2361</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L248">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -10487,8 +11222,11 @@
       <c r="K249">
         <v>678</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L249">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -10522,8 +11260,11 @@
       <c r="K250">
         <v>547</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L250">
+        <v>11591</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>264</v>
       </c>
@@ -10557,8 +11298,11 @@
       <c r="K251">
         <v>11672</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L251">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -10592,8 +11336,11 @@
       <c r="K252">
         <v>80</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L252">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -10627,8 +11374,11 @@
       <c r="K253">
         <v>4343</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L253">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>264</v>
       </c>
@@ -10662,8 +11412,11 @@
       <c r="K254">
         <v>1303</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L254">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -10697,8 +11450,11 @@
       <c r="K255">
         <v>3456</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L255">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -10732,8 +11488,11 @@
       <c r="K256">
         <v>2980</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L256">
+        <v>35114</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -10767,8 +11526,11 @@
       <c r="K257">
         <v>34909</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L257">
+        <v>130764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -10802,8 +11564,11 @@
       <c r="K258">
         <v>131906</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L258">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -10837,8 +11602,11 @@
       <c r="K259">
         <v>719</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L259">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>264</v>
       </c>
@@ -10872,8 +11640,11 @@
       <c r="K260">
         <v>26</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L260">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -10907,8 +11678,11 @@
       <c r="K261">
         <v>42</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L261">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -10942,8 +11716,11 @@
       <c r="K262">
         <v>3619</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L262">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -10977,8 +11754,11 @@
       <c r="K263">
         <v>7223</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L263">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -11012,8 +11792,11 @@
       <c r="K264">
         <v>10429</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L264">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -11047,8 +11830,11 @@
       <c r="K265">
         <v>8377</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L265">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -11082,8 +11868,11 @@
       <c r="K266">
         <v>10869</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L266">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>321</v>
       </c>
@@ -11117,8 +11906,11 @@
       <c r="K267">
         <v>887</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L267">
+        <v>17067</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>321</v>
       </c>
@@ -11152,8 +11944,11 @@
       <c r="K268">
         <v>17360</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L268">
+        <v>17676</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>321</v>
       </c>
@@ -11187,8 +11982,11 @@
       <c r="K269">
         <v>17869</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L269">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>321</v>
       </c>
@@ -11222,8 +12020,11 @@
       <c r="K270">
         <v>26</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L270">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>321</v>
       </c>
@@ -11257,8 +12058,11 @@
       <c r="K271">
         <v>1082</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L271">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>321</v>
       </c>
@@ -11292,8 +12096,11 @@
       <c r="K272">
         <v>4860</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L272">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>321</v>
       </c>
@@ -11327,8 +12134,11 @@
       <c r="K273">
         <v>5125</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L273">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>321</v>
       </c>
@@ -11362,8 +12172,11 @@
       <c r="K274">
         <v>84</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L274">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>321</v>
       </c>
@@ -11397,8 +12210,11 @@
       <c r="K275">
         <v>742</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L275">
+        <v>40811</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>321</v>
       </c>
@@ -11432,8 +12248,11 @@
       <c r="K276">
         <v>40517</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L276">
+        <v>16795</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>321</v>
       </c>
@@ -11467,8 +12286,11 @@
       <c r="K277">
         <v>16752</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L277">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>321</v>
       </c>

--- a/Historicos/ta_jalisco_div_gpo_actividad.xlsx
+++ b/Historicos/ta_jalisco_div_gpo_actividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AD9DF3-D5A1-42DA-83C5-0C756BC66BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FFCC5D-54D2-4011-8393-B06750CCE398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="348">
   <si>
     <t>grupo</t>
   </si>
@@ -1060,7 +1060,10 @@
     <t>imss_2024_8</t>
   </si>
   <si>
-    <t>diciembre 2023 - agosto 2024</t>
+    <t>imss_2024_9</t>
+  </si>
+  <si>
+    <t>diciembre 2023 - septiembre 2024</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L278"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1936,25 +1939,25 @@
     <col min="1" max="12" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>342</v>
       </c>
@@ -1991,8 +1994,11 @@
       <c r="L6" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2029,8 +2035,11 @@
       <c r="L7">
         <v>82976</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>84496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2067,8 +2076,11 @@
       <c r="L8">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2105,8 +2117,11 @@
       <c r="L9">
         <v>24235</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>24372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2143,8 +2158,11 @@
       <c r="L10">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2181,8 +2199,11 @@
       <c r="L11">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2219,8 +2240,11 @@
       <c r="L12">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2257,8 +2281,11 @@
       <c r="L13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2295,8 +2322,11 @@
       <c r="L14">
         <v>488</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2333,8 +2363,11 @@
       <c r="L15">
         <v>57673</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>57914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2371,8 +2404,11 @@
       <c r="L16">
         <v>20318</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>20934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2409,8 +2445,11 @@
       <c r="L17">
         <v>499</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2447,8 +2486,11 @@
       <c r="L18">
         <v>10796</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2485,8 +2527,11 @@
       <c r="L19">
         <v>8631</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>8694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2523,8 +2568,11 @@
       <c r="L20">
         <v>3013</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2561,8 +2609,11 @@
       <c r="L21">
         <v>4465</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2599,8 +2650,11 @@
       <c r="L22">
         <v>1906</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2637,8 +2691,11 @@
       <c r="L23">
         <v>1286</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2675,8 +2732,11 @@
       <c r="L24">
         <v>914</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2713,8 +2773,11 @@
       <c r="L25">
         <v>33161</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>33279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2751,8 +2814,11 @@
       <c r="L26">
         <v>4461</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2789,8 +2855,11 @@
       <c r="L27">
         <v>2184</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2827,8 +2896,11 @@
       <c r="L28">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2865,8 +2937,11 @@
       <c r="L29">
         <v>351</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2903,8 +2978,11 @@
       <c r="L30">
         <v>7522</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>7528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2941,8 +3019,11 @@
       <c r="L31">
         <v>15903</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2979,8 +3060,11 @@
       <c r="L32">
         <v>6479</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3017,8 +3101,11 @@
       <c r="L33">
         <v>6513</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3055,8 +3142,11 @@
       <c r="L34">
         <v>1273</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3093,8 +3183,11 @@
       <c r="L35">
         <v>392</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3131,8 +3224,11 @@
       <c r="L36">
         <v>4241</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3169,8 +3265,11 @@
       <c r="L37">
         <v>1340</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3207,8 +3306,11 @@
       <c r="L38">
         <v>22240</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>22270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3245,8 +3347,11 @@
       <c r="L39">
         <v>2665</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -3283,8 +3388,11 @@
       <c r="L40">
         <v>1117</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3321,8 +3429,11 @@
       <c r="L41">
         <v>5346</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3359,8 +3470,11 @@
       <c r="L42">
         <v>10890</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>10775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3397,8 +3511,11 @@
       <c r="L43">
         <v>2328</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3552,11 @@
       <c r="L44">
         <v>876</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3473,8 +3593,11 @@
       <c r="L45">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3511,8 +3634,11 @@
       <c r="L46">
         <v>502</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3549,8 +3675,11 @@
       <c r="L47">
         <v>8811</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3716,11 @@
       <c r="L48">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3625,8 +3757,11 @@
       <c r="L49">
         <v>5761</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3663,8 +3798,11 @@
       <c r="L50">
         <v>1072</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3701,8 +3839,11 @@
       <c r="L51">
         <v>7426</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>7474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3739,8 +3880,11 @@
       <c r="L52">
         <v>2850</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3777,8 +3921,11 @@
       <c r="L53">
         <v>25409</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>25439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3815,8 +3962,11 @@
       <c r="L54">
         <v>4066</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3853,8 +4003,11 @@
       <c r="L55">
         <v>3610</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3891,8 +4044,11 @@
       <c r="L56">
         <v>1160</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3929,8 +4085,11 @@
       <c r="L57">
         <v>1122</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3967,8 +4126,11 @@
       <c r="L58">
         <v>446</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -4005,8 +4167,11 @@
       <c r="L59">
         <v>333</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -4043,8 +4208,11 @@
       <c r="L60">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -4081,8 +4249,11 @@
       <c r="L61">
         <v>2111</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -4119,8 +4290,11 @@
       <c r="L62">
         <v>373</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -4157,8 +4331,11 @@
       <c r="L63">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4195,8 +4372,11 @@
       <c r="L64">
         <v>2185</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4233,8 +4413,11 @@
       <c r="L65">
         <v>6318</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -4271,8 +4454,11 @@
       <c r="L66">
         <v>24347</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>24694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4309,8 +4495,11 @@
       <c r="L67">
         <v>5954</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -4347,8 +4536,11 @@
       <c r="L68">
         <v>3492</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4385,8 +4577,11 @@
       <c r="L69">
         <v>1010</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -4423,8 +4618,11 @@
       <c r="L70">
         <v>6205</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4461,8 +4659,11 @@
       <c r="L71">
         <v>13127</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <v>13152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4499,8 +4700,11 @@
       <c r="L72">
         <v>2955</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4537,8 +4741,11 @@
       <c r="L73">
         <v>1474</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -4575,8 +4782,11 @@
       <c r="L74">
         <v>657</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -4613,8 +4823,11 @@
       <c r="L75">
         <v>4371</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4651,8 +4864,11 @@
       <c r="L76">
         <v>51042</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>52532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4689,8 +4905,11 @@
       <c r="L77">
         <v>45339</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4727,8 +4946,11 @@
       <c r="L78">
         <v>69299</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>70005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4765,8 +4987,11 @@
       <c r="L79">
         <v>4460</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4803,8 +5028,11 @@
       <c r="L80">
         <v>1435</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4841,8 +5069,11 @@
       <c r="L81">
         <v>20688</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>20931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4879,8 +5110,11 @@
       <c r="L82">
         <v>12713</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>12414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -4917,8 +5151,11 @@
       <c r="L83">
         <v>4632</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="L84">
         <v>5680</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -4993,8 +5233,11 @@
       <c r="L85">
         <v>713</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -5031,8 +5274,11 @@
       <c r="L86">
         <v>6156</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -5069,8 +5315,11 @@
       <c r="L87">
         <v>628</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -5107,8 +5356,11 @@
       <c r="L88">
         <v>2721</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -5145,8 +5397,11 @@
       <c r="L89">
         <v>4216</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -5183,8 +5438,11 @@
       <c r="L90">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -5221,8 +5479,11 @@
       <c r="L91">
         <v>2441</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5259,8 +5520,11 @@
       <c r="L92">
         <v>330</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5297,8 +5561,11 @@
       <c r="L93">
         <v>1157</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -5335,8 +5602,11 @@
       <c r="L94">
         <v>795</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5373,8 +5643,11 @@
       <c r="L95">
         <v>13900</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <v>14016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -5411,8 +5684,11 @@
       <c r="L96">
         <v>7158</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -5449,8 +5725,11 @@
       <c r="L97">
         <v>419</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5487,8 +5766,11 @@
       <c r="L98">
         <v>1157</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5525,8 +5807,11 @@
       <c r="L99">
         <v>16873</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99">
+        <v>16859</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -5563,8 +5848,11 @@
       <c r="L100">
         <v>9373</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5601,8 +5889,11 @@
       <c r="L101">
         <v>430</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5639,8 +5930,11 @@
       <c r="L102">
         <v>60</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -5677,8 +5971,11 @@
       <c r="L103">
         <v>1060</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -5715,8 +6012,11 @@
       <c r="L104">
         <v>6233</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5753,8 +6053,11 @@
       <c r="L105">
         <v>296</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5791,8 +6094,11 @@
       <c r="L106">
         <v>52</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5829,8 +6135,11 @@
       <c r="L107">
         <v>3119</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -5867,8 +6176,11 @@
       <c r="L108">
         <v>15320</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <v>15297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5905,8 +6217,11 @@
       <c r="L109">
         <v>14291</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>14454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -5943,8 +6258,11 @@
       <c r="L110">
         <v>18439</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>18469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -5981,8 +6299,11 @@
       <c r="L111">
         <v>3969</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -6019,8 +6340,11 @@
       <c r="L112">
         <v>10692</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <v>10743</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -6057,8 +6381,11 @@
       <c r="L113">
         <v>332</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -6095,8 +6422,11 @@
       <c r="L114">
         <v>11582</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <v>11538</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -6133,8 +6463,11 @@
       <c r="L115">
         <v>8850</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <v>8929</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>104</v>
       </c>
@@ -6171,8 +6504,11 @@
       <c r="L116">
         <v>1414</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -6209,8 +6545,11 @@
       <c r="L117">
         <v>4858</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -6247,8 +6586,11 @@
       <c r="L118">
         <v>1090</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -6285,8 +6627,11 @@
       <c r="L119">
         <v>3864</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -6323,8 +6668,11 @@
       <c r="L120">
         <v>3257</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -6361,8 +6709,11 @@
       <c r="L121">
         <v>6232</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -6399,8 +6750,11 @@
       <c r="L122">
         <v>3009</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -6437,8 +6791,11 @@
       <c r="L123">
         <v>6188</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <v>6287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -6475,8 +6832,11 @@
       <c r="L124">
         <v>1653</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -6513,8 +6873,11 @@
       <c r="L125">
         <v>38259</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>37993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>104</v>
       </c>
@@ -6551,8 +6914,11 @@
       <c r="L126">
         <v>35</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>104</v>
       </c>
@@ -6589,8 +6955,11 @@
       <c r="L127">
         <v>543</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -6627,8 +6996,11 @@
       <c r="L128">
         <v>1465</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -6665,8 +7037,11 @@
       <c r="L129">
         <v>1267</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>104</v>
       </c>
@@ -6703,8 +7078,11 @@
       <c r="L130">
         <v>1095</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>104</v>
       </c>
@@ -6741,8 +7119,11 @@
       <c r="L131">
         <v>293</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -6779,8 +7160,11 @@
       <c r="L132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>104</v>
       </c>
@@ -6817,8 +7201,11 @@
       <c r="L133">
         <v>609</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -6855,8 +7242,11 @@
       <c r="L134">
         <v>74</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>104</v>
       </c>
@@ -6893,8 +7283,11 @@
       <c r="L135">
         <v>860</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>104</v>
       </c>
@@ -6931,8 +7324,11 @@
       <c r="L136">
         <v>1625</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -6969,8 +7365,11 @@
       <c r="L137">
         <v>1503</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>104</v>
       </c>
@@ -7007,8 +7406,11 @@
       <c r="L138">
         <v>1607</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>104</v>
       </c>
@@ -7045,8 +7447,11 @@
       <c r="L139">
         <v>261</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>104</v>
       </c>
@@ -7083,8 +7488,11 @@
       <c r="L140">
         <v>1145</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>104</v>
       </c>
@@ -7121,8 +7529,11 @@
       <c r="L141">
         <v>332</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -7159,8 +7570,11 @@
       <c r="L142">
         <v>2736</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>104</v>
       </c>
@@ -7197,8 +7611,11 @@
       <c r="L143">
         <v>24030</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143">
+        <v>24418</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>104</v>
       </c>
@@ -7235,8 +7652,11 @@
       <c r="L144">
         <v>4229</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -7273,8 +7693,11 @@
       <c r="L145">
         <v>13549</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <v>13488</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -7311,8 +7734,11 @@
       <c r="L146">
         <v>1410</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>104</v>
       </c>
@@ -7349,8 +7775,11 @@
       <c r="L147">
         <v>5223</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>104</v>
       </c>
@@ -7387,8 +7816,11 @@
       <c r="L148">
         <v>1623</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -7425,8 +7857,11 @@
       <c r="L149">
         <v>271</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>104</v>
       </c>
@@ -7463,8 +7898,11 @@
       <c r="L150">
         <v>1156</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>104</v>
       </c>
@@ -7501,8 +7939,11 @@
       <c r="L151">
         <v>1875</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>104</v>
       </c>
@@ -7539,8 +7980,11 @@
       <c r="L152">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>104</v>
       </c>
@@ -7577,8 +8021,11 @@
       <c r="L153">
         <v>3323</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>104</v>
       </c>
@@ -7615,8 +8062,11 @@
       <c r="L154">
         <v>26406</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <v>27368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>104</v>
       </c>
@@ -7653,8 +8103,11 @@
       <c r="L155">
         <v>18631</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>104</v>
       </c>
@@ -7691,8 +8144,11 @@
       <c r="L156">
         <v>3008</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -7729,8 +8185,11 @@
       <c r="L157">
         <v>1890</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -7767,8 +8226,11 @@
       <c r="L158">
         <v>11833</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158">
+        <v>11867</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>104</v>
       </c>
@@ -7805,8 +8267,11 @@
       <c r="L159">
         <v>153</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>104</v>
       </c>
@@ -7843,8 +8308,11 @@
       <c r="L160">
         <v>1090</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>104</v>
       </c>
@@ -7881,8 +8349,11 @@
       <c r="L161">
         <v>48</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>104</v>
       </c>
@@ -7919,8 +8390,11 @@
       <c r="L162">
         <v>20510</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162">
+        <v>20594</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>104</v>
       </c>
@@ -7957,8 +8431,11 @@
       <c r="L163">
         <v>830</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>104</v>
       </c>
@@ -7995,8 +8472,11 @@
       <c r="L164">
         <v>6091</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>104</v>
       </c>
@@ -8033,8 +8513,11 @@
       <c r="L165">
         <v>700</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>104</v>
       </c>
@@ -8071,8 +8554,11 @@
       <c r="L166">
         <v>1244</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>104</v>
       </c>
@@ -8109,8 +8595,11 @@
       <c r="L167">
         <v>14800</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167">
+        <v>15066</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>104</v>
       </c>
@@ -8147,8 +8636,11 @@
       <c r="L168">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>104</v>
       </c>
@@ -8185,8 +8677,11 @@
       <c r="L169">
         <v>2796</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>104</v>
       </c>
@@ -8223,8 +8718,11 @@
       <c r="L170">
         <v>10005</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170">
+        <v>9943</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>104</v>
       </c>
@@ -8261,8 +8759,11 @@
       <c r="L171">
         <v>3296</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>104</v>
       </c>
@@ -8299,8 +8800,11 @@
       <c r="L172">
         <v>1452</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>104</v>
       </c>
@@ -8337,8 +8841,11 @@
       <c r="L173">
         <v>335</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>104</v>
       </c>
@@ -8375,8 +8882,11 @@
       <c r="L174">
         <v>29</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>104</v>
       </c>
@@ -8413,8 +8923,11 @@
       <c r="L175">
         <v>212</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>104</v>
       </c>
@@ -8451,8 +8964,11 @@
       <c r="L176">
         <v>1293</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>104</v>
       </c>
@@ -8489,8 +9005,11 @@
       <c r="L177">
         <v>2886</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>104</v>
       </c>
@@ -8527,8 +9046,11 @@
       <c r="L178">
         <v>3450</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>104</v>
       </c>
@@ -8565,8 +9087,11 @@
       <c r="L179">
         <v>1128</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>104</v>
       </c>
@@ -8603,8 +9128,11 @@
       <c r="L180">
         <v>1683</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>104</v>
       </c>
@@ -8641,8 +9169,11 @@
       <c r="L181">
         <v>638</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -8679,8 +9210,11 @@
       <c r="L182">
         <v>2618</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -8717,8 +9251,11 @@
       <c r="L183">
         <v>30797</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183">
+        <v>30975</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>104</v>
       </c>
@@ -8755,8 +9292,11 @@
       <c r="L184">
         <v>2193</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>104</v>
       </c>
@@ -8793,8 +9333,11 @@
       <c r="L185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>104</v>
       </c>
@@ -8831,8 +9374,11 @@
       <c r="L186">
         <v>1804</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>104</v>
       </c>
@@ -8869,8 +9415,11 @@
       <c r="L187">
         <v>2106</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>104</v>
       </c>
@@ -8907,8 +9456,11 @@
       <c r="L188">
         <v>109</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -8945,8 +9497,11 @@
       <c r="L189">
         <v>458</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>104</v>
       </c>
@@ -8983,8 +9538,11 @@
       <c r="L190">
         <v>114</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>104</v>
       </c>
@@ -9021,8 +9579,11 @@
       <c r="L191">
         <v>229</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -9059,8 +9620,11 @@
       <c r="L192">
         <v>3741</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>104</v>
       </c>
@@ -9097,8 +9661,11 @@
       <c r="L193">
         <v>1309</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>104</v>
       </c>
@@ -9135,8 +9702,11 @@
       <c r="L194">
         <v>26</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>104</v>
       </c>
@@ -9173,8 +9743,11 @@
       <c r="L195">
         <v>10836</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195">
+        <v>10545</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>104</v>
       </c>
@@ -9211,8 +9784,11 @@
       <c r="L196">
         <v>5904</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -9249,8 +9825,11 @@
       <c r="L197">
         <v>2122</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -9287,8 +9866,11 @@
       <c r="L198">
         <v>103</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>104</v>
       </c>
@@ -9325,8 +9907,11 @@
       <c r="L199">
         <v>204</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>104</v>
       </c>
@@ -9363,8 +9948,11 @@
       <c r="L200">
         <v>160</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>104</v>
       </c>
@@ -9401,8 +9989,11 @@
       <c r="L201">
         <v>1024</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>104</v>
       </c>
@@ -9439,8 +10030,11 @@
       <c r="L202">
         <v>1824</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>104</v>
       </c>
@@ -9477,8 +10071,11 @@
       <c r="L203">
         <v>5378</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>104</v>
       </c>
@@ -9515,8 +10112,11 @@
       <c r="L204">
         <v>1045</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>104</v>
       </c>
@@ -9553,8 +10153,11 @@
       <c r="L205">
         <v>4302</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>104</v>
       </c>
@@ -9591,8 +10194,11 @@
       <c r="L206">
         <v>260</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -9629,8 +10235,11 @@
       <c r="L207">
         <v>1369</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>104</v>
       </c>
@@ -9667,8 +10276,11 @@
       <c r="L208">
         <v>228</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>104</v>
       </c>
@@ -9705,8 +10317,11 @@
       <c r="L209">
         <v>47</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>104</v>
       </c>
@@ -9743,8 +10358,11 @@
       <c r="L210">
         <v>38</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>251</v>
       </c>
@@ -9781,8 +10399,11 @@
       <c r="L211">
         <v>273</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>251</v>
       </c>
@@ -9819,8 +10440,11 @@
       <c r="L212">
         <v>859</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>251</v>
       </c>
@@ -9857,8 +10481,11 @@
       <c r="L213">
         <v>150</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -9895,8 +10522,11 @@
       <c r="L214">
         <v>578</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>251</v>
       </c>
@@ -9933,8 +10563,11 @@
       <c r="L215">
         <v>106</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>251</v>
       </c>
@@ -9971,8 +10604,11 @@
       <c r="L216">
         <v>38</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>251</v>
       </c>
@@ -10009,8 +10645,11 @@
       <c r="L217">
         <v>836</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>251</v>
       </c>
@@ -10047,8 +10686,11 @@
       <c r="L218">
         <v>3215</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -10085,8 +10727,11 @@
       <c r="L219">
         <v>2571</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>264</v>
       </c>
@@ -10123,8 +10768,11 @@
       <c r="L220">
         <v>57775</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220">
+        <v>59318</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -10161,8 +10809,11 @@
       <c r="L221">
         <v>3887</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>264</v>
       </c>
@@ -10199,8 +10850,11 @@
       <c r="L222">
         <v>6511</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>264</v>
       </c>
@@ -10237,8 +10891,11 @@
       <c r="L223">
         <v>324</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>264</v>
       </c>
@@ -10275,8 +10932,11 @@
       <c r="L224">
         <v>37861</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224">
+        <v>37856</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>264</v>
       </c>
@@ -10313,8 +10973,11 @@
       <c r="L225">
         <v>157604</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225">
+        <v>157125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>264</v>
       </c>
@@ -10351,8 +11014,11 @@
       <c r="L226">
         <v>37821</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226">
+        <v>36912</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>264</v>
       </c>
@@ -10389,8 +11055,11 @@
       <c r="L227">
         <v>1000</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>264</v>
       </c>
@@ -10427,8 +11096,11 @@
       <c r="L228">
         <v>95</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>264</v>
       </c>
@@ -10465,8 +11137,11 @@
       <c r="L229">
         <v>2014</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>264</v>
       </c>
@@ -10503,8 +11178,11 @@
       <c r="L230">
         <v>720</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>264</v>
       </c>
@@ -10541,8 +11219,11 @@
       <c r="L231">
         <v>3268</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>264</v>
       </c>
@@ -10579,8 +11260,11 @@
       <c r="L232">
         <v>1650</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -10617,8 +11301,11 @@
       <c r="L233">
         <v>49717</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233">
+        <v>51958</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>264</v>
       </c>
@@ -10655,8 +11342,11 @@
       <c r="L234">
         <v>152</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -10693,8 +11383,11 @@
       <c r="L235">
         <v>21683</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235">
+        <v>21696</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>264</v>
       </c>
@@ -10731,8 +11424,11 @@
       <c r="L236">
         <v>3128</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -10769,8 +11465,11 @@
       <c r="L237">
         <v>8268</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237">
+        <v>8277</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>264</v>
       </c>
@@ -10807,8 +11506,11 @@
       <c r="L238">
         <v>25474</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238">
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>264</v>
       </c>
@@ -10845,8 +11547,11 @@
       <c r="L239">
         <v>1462</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -10883,8 +11588,11 @@
       <c r="L240">
         <v>30</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -10921,8 +11629,11 @@
       <c r="L241">
         <v>2951</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>264</v>
       </c>
@@ -10959,8 +11670,11 @@
       <c r="L242">
         <v>15917</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242">
+        <v>16003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -10997,8 +11711,11 @@
       <c r="L243">
         <v>5734</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243">
+        <v>6297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>264</v>
       </c>
@@ -11035,8 +11752,11 @@
       <c r="L244">
         <v>1510</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>264</v>
       </c>
@@ -11073,8 +11793,11 @@
       <c r="L245">
         <v>1351</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -11111,8 +11834,11 @@
       <c r="L246">
         <v>2836</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>264</v>
       </c>
@@ -11149,8 +11875,11 @@
       <c r="L247">
         <v>2390</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -11187,8 +11916,11 @@
       <c r="L248">
         <v>705</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -11225,8 +11957,11 @@
       <c r="L249">
         <v>449</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -11263,8 +11998,11 @@
       <c r="L250">
         <v>11591</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250">
+        <v>11635</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>264</v>
       </c>
@@ -11301,8 +12039,11 @@
       <c r="L251">
         <v>79</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -11339,8 +12080,11 @@
       <c r="L252">
         <v>4020</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -11377,8 +12121,11 @@
       <c r="L253">
         <v>1294</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>264</v>
       </c>
@@ -11415,8 +12162,11 @@
       <c r="L254">
         <v>3461</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -11453,8 +12203,11 @@
       <c r="L255">
         <v>2984</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -11491,8 +12244,11 @@
       <c r="L256">
         <v>35114</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M256">
+        <v>35288</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -11529,8 +12285,11 @@
       <c r="L257">
         <v>130764</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M257">
+        <v>135253</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -11567,8 +12326,11 @@
       <c r="L258">
         <v>904</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M258">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -11605,8 +12367,11 @@
       <c r="L259">
         <v>25</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M259">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>264</v>
       </c>
@@ -11643,8 +12408,11 @@
       <c r="L260">
         <v>41</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M260">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -11681,8 +12449,11 @@
       <c r="L261">
         <v>3689</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M261">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -11719,8 +12490,11 @@
       <c r="L262">
         <v>6899</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M262">
+        <v>6939</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -11757,8 +12531,11 @@
       <c r="L263">
         <v>10205</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M263">
+        <v>10572</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -11795,8 +12572,11 @@
       <c r="L264">
         <v>8426</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M264">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -11833,8 +12613,11 @@
       <c r="L265">
         <v>10990</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M265">
+        <v>11126</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -11871,8 +12654,11 @@
       <c r="L266">
         <v>950</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M266">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>321</v>
       </c>
@@ -11909,8 +12695,11 @@
       <c r="L267">
         <v>17067</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267">
+        <v>17007</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>321</v>
       </c>
@@ -11947,8 +12736,11 @@
       <c r="L268">
         <v>17676</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268">
+        <v>17853</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>321</v>
       </c>
@@ -11985,8 +12777,11 @@
       <c r="L269">
         <v>25</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>321</v>
       </c>
@@ -12023,8 +12818,11 @@
       <c r="L270">
         <v>1084</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>321</v>
       </c>
@@ -12061,8 +12859,11 @@
       <c r="L271">
         <v>4915</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>321</v>
       </c>
@@ -12099,8 +12900,11 @@
       <c r="L272">
         <v>5231</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M272">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>321</v>
       </c>
@@ -12137,8 +12941,11 @@
       <c r="L273">
         <v>160</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M273">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>321</v>
       </c>
@@ -12175,8 +12982,11 @@
       <c r="L274">
         <v>706</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M274">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>321</v>
       </c>
@@ -12213,8 +13023,11 @@
       <c r="L275">
         <v>40811</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M275">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>321</v>
       </c>
@@ -12251,8 +13064,11 @@
       <c r="L276">
         <v>16795</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M276">
+        <v>16884</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>321</v>
       </c>
@@ -12289,8 +13105,11 @@
       <c r="L277">
         <v>1656</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M277">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>321</v>
       </c>
